--- a/templates/Base.xlsx
+++ b/templates/Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\Projects\ResponseAnalyzer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F09BA2E-E43A-4638-AF46-09B67B3B3735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E13CCA-2BD4-479B-83BD-61AAC8A6B3BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{A8E955EB-F13F-4C65-9C3C-6EA905D67102}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A8E955EB-F13F-4C65-9C3C-6EA905D67102}"/>
   </bookViews>
   <sheets>
     <sheet name="АЧХ" sheetId="2" r:id="rId1"/>
@@ -745,6 +745,8 @@
         <c:crossAx val="241398848"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="241398848"/>
@@ -787,6 +789,8 @@
         <c:crossAx val="241398272"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1499,6 +1503,7 @@
         <c:crossAx val="241632384"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="241632384"/>
@@ -1541,6 +1546,8 @@
         <c:crossAx val="241631232"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -2031,6 +2038,7 @@
         <c:crossAx val="395637824"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="395637824"/>
@@ -2082,6 +2090,8 @@
         <c:crossAx val="395635520"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+        <c:minorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -3148,6 +3158,7 @@
         <c:crossAx val="395608064"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="395608064"/>
@@ -3199,6 +3210,8 @@
         <c:crossAx val="395640128"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+        <c:minorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -4142,7 +4155,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="2" name="Мнимая">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57790B62-1276-4FD4-9EDE-B7D89E4EE61F}"/>
@@ -4180,7 +4193,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="3" name="Действительная">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1158B9AC-EF58-4AAB-ABF2-01F5F01D62A7}"/>
@@ -5945,7 +5958,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="4" name="Фюзеляж">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE6E940-8D78-463E-85E3-6CEAF382CB22}"/>
@@ -5983,7 +5996,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="5" name="Крыло">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{802016C6-EA80-4B88-876A-0B160F3C9577}"/>
@@ -6511,7 +6524,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 16">
+        <xdr:cNvPr id="10" name="Стабилизатор">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AB84C13-E786-4785-83C8-1473E08B5D0E}"/>
@@ -6776,7 +6789,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 17">
+        <xdr:cNvPr id="13" name="Киль">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CB2A726-ACD3-491C-B36D-BD5A0AB0A226}"/>
@@ -7007,1215 +7020,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>355601</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>26989</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="28" name="Группа 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D0FF0B-E499-47A2-A249-409DB6E91151}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="7353300" y="952500"/>
-          <a:ext cx="1536701" cy="1360489"/>
-          <a:chOff x="7370763" y="1735136"/>
-          <a:chExt cx="1536701" cy="1331914"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="29" name="Группа 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE7E5AD8-E601-4A37-8234-1CFBB98D503A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="7370763" y="1735136"/>
-            <a:ext cx="1536701" cy="1331914"/>
-            <a:chOff x="7370763" y="1735136"/>
-            <a:chExt cx="1536701" cy="1331914"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="42" name="Прямоугольник 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB863DDA-31F7-45A5-B570-9C2D120BA6E2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7370763" y="1735136"/>
-              <a:ext cx="1536701" cy="1331914"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1001">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ru-RU" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="43" name="Прямая соединительная линия 42">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E977191-FC6C-4726-88A0-1B4B063B0F8A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7902578" y="1735138"/>
-              <a:ext cx="0" cy="1323975"/>
-            </a:xfrm>
-            <a:prstGeom prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="44" name="Прямая соединительная линия 43">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{687D83FE-3B20-4775-9674-972C60E0600E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8401056" y="1979612"/>
-              <a:ext cx="0" cy="1087438"/>
-            </a:xfrm>
-            <a:prstGeom prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="45" name="Прямая соединительная линия 44">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3441B492-DD5A-49D2-A85D-EF44E27F2E86}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1">
-              <a:off x="7910514" y="1979613"/>
-              <a:ext cx="989012" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="46" name="Прямая соединительная линия 45">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14235127-D735-4BC9-A5BA-9FAD0EDC8893}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1">
-              <a:off x="7378701" y="2224088"/>
-              <a:ext cx="1520824" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="47" name="Прямая соединительная линия 46">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FD40B9A-8605-435D-8438-135659223C19}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1">
-              <a:off x="7378701" y="2500313"/>
-              <a:ext cx="1520824" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="48" name="Прямая соединительная линия 47">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65AD6AC1-3037-49B2-86EC-CAF29EB6CC4B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1">
-              <a:off x="7378700" y="2782886"/>
-              <a:ext cx="1520824" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="TextBox 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{831EB2D6-8CE1-4482-B58E-5A4C70669883}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7927975" y="2011362"/>
-            <a:ext cx="452438" cy="180974"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1200">
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>Шток</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="TextBox 30">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A7C101E-3C8D-49D1-B007-8420A23CF140}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7924801" y="1743074"/>
-            <a:ext cx="958850" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" i="1">
-                <a:latin typeface="Times New Roman"/>
-                <a:ea typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Y</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1200">
-                <a:latin typeface="Times New Roman"/>
-                <a:ea typeface="Calibri"/>
-              </a:rPr>
-              <a:t>;</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200">
-                <a:latin typeface="Times New Roman"/>
-                <a:ea typeface="Calibri"/>
-              </a:rPr>
-              <a:t> Im </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" i="1">
-                <a:latin typeface="Times New Roman"/>
-                <a:ea typeface="Calibri"/>
-              </a:rPr>
-              <a:t>a</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200">
-                <a:latin typeface="Times New Roman"/>
-                <a:ea typeface="Calibri"/>
-              </a:rPr>
-              <a:t>,</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1200" baseline="0">
-                <a:latin typeface="Times New Roman"/>
-                <a:ea typeface="Calibri"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1200">
-                <a:latin typeface="Times New Roman"/>
-                <a:ea typeface="Calibri"/>
-              </a:rPr>
-              <a:t>м/с</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1200" baseline="30000">
-                <a:latin typeface="Times New Roman"/>
-                <a:ea typeface="Calibri"/>
-              </a:rPr>
-              <a:t>2</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1200"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="TextBox 31">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A8BADA-53AC-4853-AF1C-9EDCAE0A544E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8418513" y="2011360"/>
-            <a:ext cx="457200" cy="180976"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1200">
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>Гильза</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="33" name="TextBox 32">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD9B62F9-2C65-4164-BC16-5F071563FF61}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7372350" y="2238375"/>
-            <a:ext cx="546102" cy="266699"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1200">
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>ПОШ</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="34" name="TextBox 33">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{663AF7A7-430C-482C-8B06-75F84B333728}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7386639" y="2554290"/>
-            <a:ext cx="508000" cy="196848"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1200">
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>ПООШ</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="TextBox 34">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C3430C-3C82-426D-9F9E-0F3FE176B1B7}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7378700" y="2838450"/>
-            <a:ext cx="523876" cy="228599"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1200">
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>ЛООШ</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="36" name="TextBox 35">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A9236C0-0828-4A58-999B-8E517C25735C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7902575" y="2271713"/>
-            <a:ext cx="482600" cy="204788"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1200">
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>0,065</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="TextBox 36">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8514115-4055-4D3C-9B2C-1EB57541BD5A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8401050" y="2271713"/>
-            <a:ext cx="506413" cy="204788"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="0" lang="ru-RU" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:prstClr val="black"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:uLnTx/>
-                <a:uFillTx/>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>0,033</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="TextBox 37">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841D333E-BC74-4088-B9C9-CBE0B8F79E9E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7918450" y="2838451"/>
-            <a:ext cx="482600" cy="204787"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="0" lang="ru-RU" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:prstClr val="black"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:uLnTx/>
-                <a:uFillTx/>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>-3,034</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="39" name="TextBox 38">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE6688C-D5BB-45FB-ACE1-23BEC3F73A3C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7918450" y="2554288"/>
-            <a:ext cx="482600" cy="204788"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="0" lang="ru-RU" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:prstClr val="black"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:uLnTx/>
-                <a:uFillTx/>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>3,298</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="TextBox 39">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB261C55-F036-4367-A87C-A4B6EDE39118}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8416925" y="2554288"/>
-            <a:ext cx="482601" cy="204788"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="0" lang="ru-RU" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:prstClr val="black"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:uLnTx/>
-                <a:uFillTx/>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>3,103</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr kumimoji="0" lang="ru-RU" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:prstClr val="black"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="TextBox 40">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C31EB04-AFBC-4F47-ACA6-A02BE16F8919}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8416925" y="2838451"/>
-            <a:ext cx="482601" cy="204787"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="0" lang="ru-RU" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:prstClr val="black"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:uLnTx/>
-                <a:uFillTx/>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>-3,403</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8520,8 +7324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3406B6-B537-451D-BC5F-1BF62CD9F844}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8540,8 +7344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A104BF4C-683E-43E8-A927-D03CE3B9A284}">
   <dimension ref="A1:AI627"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF17" sqref="AF17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/templates/Base.xlsx
+++ b/templates/Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\Projects\ResponseAnalyzer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E13CCA-2BD4-479B-83BD-61AAC8A6B3BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CA48AE-B0C5-40A3-90BE-D8E7F0A6A6E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A8E955EB-F13F-4C65-9C3C-6EA905D67102}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{A8E955EB-F13F-4C65-9C3C-6EA905D67102}"/>
   </bookViews>
   <sheets>
     <sheet name="АЧХ" sheetId="2" r:id="rId1"/>
@@ -5958,7 +5958,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Фюзеляж">
+        <xdr:cNvPr id="4" name="Фюзеляж-Ф">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE6E940-8D78-463E-85E3-6CEAF382CB22}"/>
@@ -5996,7 +5996,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Крыло">
+        <xdr:cNvPr id="5" name="Крыло-Ф">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{802016C6-EA80-4B88-876A-0B160F3C9577}"/>
@@ -6524,7 +6524,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Стабилизатор">
+        <xdr:cNvPr id="10" name="Стабилизатор-Ф">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AB84C13-E786-4785-83C8-1473E08B5D0E}"/>
@@ -6789,7 +6789,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Киль">
+        <xdr:cNvPr id="13" name="Киль-Ф">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CB2A726-ACD3-491C-B36D-BD5A0AB0A226}"/>
@@ -7324,8 +7324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3406B6-B537-451D-BC5F-1BF62CD9F844}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7344,8 +7344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A104BF4C-683E-43E8-A927-D03CE3B9A284}">
   <dimension ref="A1:AI627"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/templates/Base.xlsx
+++ b/templates/Base.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\Projects\ResponseAnalyzer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA52473-284E-4081-8680-DE54CDB6F7EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FAC6C1-50C0-407A-84F5-2775F7FB644B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{A8E955EB-F13F-4C65-9C3C-6EA905D67102}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{A8E955EB-F13F-4C65-9C3C-6EA905D67102}"/>
   </bookViews>
   <sheets>
     <sheet name="АЧХ" sheetId="2" r:id="rId1"/>
     <sheet name="Форма" sheetId="1" r:id="rId2"/>
+    <sheet name="Markers" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,6 +24,56 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
+  <si>
+    <t>Мнимая</t>
+  </si>
+  <si>
+    <t>Действительная</t>
+  </si>
+  <si>
+    <t>Фюзеляж-Ф</t>
+  </si>
+  <si>
+    <t>Крыло-Ф</t>
+  </si>
+  <si>
+    <t>Стабилизатор-Ф</t>
+  </si>
+  <si>
+    <t>Киль-Ф</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>SquareFill</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>CircleFill</t>
+  </si>
+  <si>
+    <t>Triangle</t>
+  </si>
+  <si>
+    <t>TriangleFill</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>DiamondFill</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -93,11 +144,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -8476,7 +8530,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8493,8 +8547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A104BF4C-683E-43E8-A927-D03CE3B9A284}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8505,4 +8559,223 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D046C3E-3845-4A82-A210-3FE8A7E61C9E}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="15.7109375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/templates/Base.xlsx
+++ b/templates/Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\Projects\ResponseAnalyzer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FAC6C1-50C0-407A-84F5-2775F7FB644B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD69623F-1012-4EE8-A5DD-9046C8A426F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{A8E955EB-F13F-4C65-9C3C-6EA905D67102}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="15">
   <si>
     <t>Мнимая</t>
   </si>
@@ -44,41 +44,41 @@
     <t>Стабилизатор-Ф</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>Киль-Ф</t>
   </si>
   <si>
-    <t>Square</t>
+    <t>○</t>
   </si>
   <si>
-    <t>SquareFill</t>
+    <t>△</t>
   </si>
   <si>
-    <t>Circle</t>
+    <t>▲</t>
   </si>
   <si>
-    <t>CircleFill</t>
+    <t>◆</t>
   </si>
   <si>
-    <t>Triangle</t>
+    <t>◇</t>
   </si>
   <si>
-    <t>TriangleFill</t>
+    <t>■</t>
   </si>
   <si>
-    <t>Diamond</t>
+    <t>□</t>
   </si>
   <si>
-    <t>DiamondFill</t>
-  </si>
-  <si>
-    <t>X</t>
+    <t>●</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +117,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF3C3C3C"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF424242"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF3C3C3C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF424242"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -144,13 +189,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2978,7 +3050,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
+            <c:symbol val="diamond"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -8548,7 +8620,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8563,19 +8635,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D046C3E-3845-4A82-A210-3FE8A7E61C9E}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="15.7109375" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="5" width="15.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="3" customWidth="1"/>
+    <col min="7" max="10" width="9.140625" style="3"/>
+    <col min="11" max="11" width="9.140625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8592,190 +8667,272 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="K7" s="10"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="12" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7" t="s">
+        <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="16" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/Base.xlsx
+++ b/templates/Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\Projects\ResponseAnalyzer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD69623F-1012-4EE8-A5DD-9046C8A426F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C7A5F7-E051-4D7A-9DA0-C5BD3D350233}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{A8E955EB-F13F-4C65-9C3C-6EA905D67102}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="15">
   <si>
     <t>Мнимая</t>
   </si>
@@ -8638,7 +8638,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8704,8 +8704,8 @@
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>12</v>
@@ -8726,7 +8726,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>7</v>
@@ -8746,8 +8746,8 @@
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>14</v>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>14</v>
@@ -8767,8 +8767,8 @@
       <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>8</v>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>8</v>
@@ -8789,7 +8789,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>9</v>
@@ -8811,8 +8811,8 @@
       <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>11</v>
+      <c r="E8" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
@@ -8832,8 +8832,8 @@
       <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>10</v>
+      <c r="E9" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>10</v>
@@ -8853,9 +8853,7 @@
       <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="E10" s="6"/>
       <c r="F10" s="9" t="s">
         <v>5</v>
       </c>
@@ -8868,7 +8866,7 @@
       <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
@@ -8878,7 +8876,7 @@
       <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
@@ -8888,7 +8886,7 @@
       <c r="D13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
@@ -8898,7 +8896,7 @@
       <c r="D14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
@@ -8908,7 +8906,7 @@
       <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
@@ -8918,7 +8916,7 @@
       <c r="D16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
@@ -8928,7 +8926,7 @@
       <c r="D17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="9"/>
     </row>
   </sheetData>

--- a/templates/Base.xlsx
+++ b/templates/Base.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\Projects\ResponseAnalyzer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C7A5F7-E051-4D7A-9DA0-C5BD3D350233}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76B7E10-DC66-4106-B831-9E3C51B56E4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{A8E955EB-F13F-4C65-9C3C-6EA905D67102}"/>
   </bookViews>
   <sheets>
     <sheet name="АЧХ" sheetId="2" r:id="rId1"/>
     <sheet name="Форма" sheetId="1" r:id="rId2"/>
-    <sheet name="Markers" sheetId="3" r:id="rId3"/>
+    <sheet name="Вращение" sheetId="4" r:id="rId3"/>
+    <sheet name="f(A)" sheetId="5" r:id="rId4"/>
+    <sheet name="Markers" sheetId="3" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -78,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +167,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -189,7 +201,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
@@ -225,6 +237,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4197,6 +4211,3771 @@
     <c:pageMargins b="1" l="0.75000000000000289" r="0.75000000000000289" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="portrait"/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20142499581859721"/>
+          <c:y val="3.3598174600034288E-2"/>
+          <c:w val="0.71818402891331878"/>
+          <c:h val="0.89042772919716373"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>F = 5Н</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]ChartData!$A$3:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]ChartData!$B$3:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>-0.81814795732498169</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.82704412937164307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.1748884916305542</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.6394596099853516</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.0776593685150146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.3443863391876221</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.5296721458435059</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.6214101314544678</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.6309487819671631</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.6486167907714844</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.628143310546875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.5876333713531494</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.5395078659057617</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.5022051334381104</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.4825830459594727</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.4300551414489746</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.3701050281524658</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.2817668914794922</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.1970741748809814</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.1466248035430908</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.0989453792572021</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.0648272037506104</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.016094446182251</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.9886789321899414</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.8991826772689819</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.8418384790420532</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.801224946975708</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.8057395219802856</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.8084714412689209</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.8143644332885742</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.8107641935348511</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.7866988182067871</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.757227897644043</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.7169473171234131</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.6586606502532959</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.6023780107498169</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-01FB-4149-BA1F-C704FF5410C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>F = 20Н</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]ChartData!$C$3:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]ChartData!$D$3:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>-5.8272643089294434</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.0581860542297363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.314084529876709</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.624946117401123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.1292572021484375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.7240300178527832</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.3826408386230469</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.9292697906494141</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.5362577438354492</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.9107036590576172</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-10.326160430908203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-10.756730079650879</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-11.270539283752441</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-11.724250793457031</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-12.214192390441895</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-12.878236770629883</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-13.719645500183105</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-14.40874195098877</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-14.836187362670898</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-15.191197395324707</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-15.314050674438477</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-15.453940391540527</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-15.540084838867188</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-15.665303230285645</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-15.976139068603516</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-16.326528549194336</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-16.568803787231445</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-16.857915878295898</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-17.024030685424805</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-17.053213119506836</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-16.614734649658203</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-15.501371383666992</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-13.73705005645752</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-12.320948600769043</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-11.547895431518555</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-10.960291862487793</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-01FB-4149-BA1F-C704FF5410C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>F = 35Н</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]ChartData!$E$3:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>31.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]ChartData!$F$3:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-12.90718936920166</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-13.316024780273438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-13.803609848022461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-14.364500999450684</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15.028201103210449</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-15.639732360839844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-16.214553833007813</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-16.79481315612793</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-17.492351531982422</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-18.008213043212891</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-18.570440292358398</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-19.087162017822266</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-19.614568710327148</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-20.202125549316406</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-20.920085906982422</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-21.783828735351563</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-22.778238296508789</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-23.74488639831543</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-24.593559265136719</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-25.459318161010742</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-26.408567428588867</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-27.253055572509766</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-28.197761535644531</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-28.994607925415039</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-29.599946975708008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-30.006322860717773</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-29.542575836181641</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-26.559957504272461</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-24.400094985961914</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-20.390869140625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-16.993757247924805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-01FB-4149-BA1F-C704FF5410C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>F = 50Н</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]ChartData!$G$3:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.400001525878906</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32.599998474121094</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]ChartData!$H$3:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-18.169242858886719</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-18.8494873046875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-19.358917236328125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-19.956974029541016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20.419567108154297</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-20.879339218139648</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-21.303844451904297</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-21.951887130737305</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22.697566986083984</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-23.511421203613281</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-24.285074234008789</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-25.558658599853516</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-26.727052688598633</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-28.175506591796875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-29.454330444335938</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-30.518320083618164</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-31.578174591064453</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-32.797470092773438</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-33.840602874755859</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-35.103244781494141</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-36.532924652099609</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-37.9219970703125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-39.292545318603516</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-40.791900634765625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-41.930263519287109</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-42.603271484375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-43.474605560302734</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-33.502052307128906</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-29.865949630737305</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-25.573381423950195</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-22.797933578491211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-01FB-4149-BA1F-C704FF5410C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>F = 65Н</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]ChartData!$I$3:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.166666030883789</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.333333969116211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.666666030883789</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.833333969116211</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.166666030883789</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.333333969116211</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.666666030883789</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.833333969116211</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.166666030883789</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.333333969116211</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31.666666030883789</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31.833333969116211</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32.166667938232422</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.333332061767578</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32.666667938232422</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32.833332061767578</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33.166667938232422</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33.333332061767578</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33.666667938232422</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33.833332061767578</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]ChartData!$J$3:$J$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-28.119304656982422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-28.951499938964844</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-29.807823181152344</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-30.647661209106445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-31.424270629882813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-32.189929962158203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-33.019004821777344</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-33.935802459716797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-34.951892852783203</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-35.985191345214844</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-37.336406707763672</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-38.669910430908203</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-40.194446563720703</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-41.535057067871094</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-43.365020751953125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-45.109661102294922</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-46.780529022216797</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-48.499267578125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-50.267555236816406</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-51.817012786865234</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-53.381465911865234</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-54.787235260009766</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-55.818767547607422</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-56.645519256591797</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-57.465145111083984</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-60.007781982421875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-37.085994720458984</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-27.938209533691406</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-26.651756286621094</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-26.673139572143555</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-28.031486511230469</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-01FB-4149-BA1F-C704FF5410C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="262404864"/>
+        <c:axId val="262405440"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:v>#ССЫЛКА!</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="12700">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="triangle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="38"/>
+                  </c:numLit>
+                </c:xVal>
+                <c:yVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="38"/>
+                  </c:numLit>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-01FB-4149-BA1F-C704FF5410C0}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:v>#ССЫЛКА!</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="12700">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="diamond"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="38"/>
+                  </c:numLit>
+                </c:xVal>
+                <c:yVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="38"/>
+                  </c:numLit>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-01FB-4149-BA1F-C704FF5410C0}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:v>#ССЫЛКА!</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="12700">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="diamond"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="38"/>
+                  </c:numLit>
+                </c:xVal>
+                <c:yVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="38"/>
+                  </c:numLit>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-01FB-4149-BA1F-C704FF5410C0}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:v>#ССЫЛКА!</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="12700">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="x"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="38"/>
+                  </c:numLit>
+                </c:xVal>
+                <c:yVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="38"/>
+                  </c:numLit>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-01FB-4149-BA1F-C704FF5410C0}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="262404864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="35"/>
+          <c:min val="22"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:ea typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262405440"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="262405440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:ea typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262404864"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20825978641756851"/>
+          <c:y val="0.55072383268038028"/>
+          <c:w val="0.18597193606227946"/>
+          <c:h val="0.35304004943771955"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman"/>
+          <a:ea typeface="Times New Roman"/>
+          <a:cs typeface="Times New Roman"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75000000000001432" r="0.75000000000001432" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId2"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:ea typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>
+              </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.49735546077574666"/>
+          <c:y val="3.1553398058252441E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18807975119278236"/>
+          <c:y val="4.2518903499345513E-2"/>
+          <c:w val="0.71542607432402361"/>
+          <c:h val="0.88553382440098216"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>F = 5Н</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]ChartData!$A$42:$A$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]ChartData!$B$42:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.46500074863433838</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81355535984039307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97336697578430176</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0787351131439209</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94178706407546997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71014899015426636</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46841427683830261</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.229460209608078</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4245610237121582E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.13164454698562622</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.30739346146583557</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.43980365991592407</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.53793632984161377</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.64381444454193115</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.74001091718673706</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.83623051643371582</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.94761037826538086</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.0140016078948975</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.0512732267379761</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.0771911144256592</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.1028810739517212</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.1470880508422852</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.1832976341247559</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.2485735416412354</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.2790981531143188</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.269817590713501</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.2392308712005615</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.2320655584335327</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.2341903448104858</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.2788169384002686</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.3278870582580566</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.3947110176086426</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.4585775136947632</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.5006942749023438</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.5549843311309814</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.6156613826751709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3198-4BD3-9B4B-D1F20E95338D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>F = 20Н</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]ChartData!$C$42:$C$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]ChartData!$D$42:$D$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1.8317927122116089</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2940785884857178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7555899620056152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3966636657714844</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2234983444213867</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9639973640441895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2978711128234863</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5824794769287109</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5448403358459473</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3498435020446777</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1655669212341309</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8718457221984863</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6701545715332031</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4206113815307617</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0885767936706543</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.7223250865936279</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0612850189208984</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5093460083007813</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9708997011184692</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4095746278762817</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.91519743204116821</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.38190582394599915</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-9.2401161789894104E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.52535402774810791</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.0449081659317017</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.7350887060165405</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.573319673538208</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.3187341690063477</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4.173738956451416</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-5.3679533004760742</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6.9554872512817383</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-8.6936807632446289</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-10.181264877319336</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-10.907645225524902</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-11.239775657653809</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-11.53823184967041</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3198-4BD3-9B4B-D1F20E95338D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>F = 35Н</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]ChartData!$E$42:$E$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>31.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]ChartData!$F$42:$F$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>7.2091703414916992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2448315620422363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.412602424621582</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5319766998291016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5534157752990723</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4361982345581055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4676952362060547</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5491795539855957</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5117483139038086</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4643654823303223</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.3450584411621094</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.2787423133850098</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.2180542945861816</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0913829803466797</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.9398550987243652</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.7100448608398438</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.2871532440185547</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.4466133117675781</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5842175483703613</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.7740323543548584</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0451080799102783</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0704600811004639</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.82232415676116943</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.66770446300506592</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.5874719619750977</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4.8142518997192383</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-8.2064189910888672</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-12.936838150024414</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-15.198762893676758</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-17.561029434204102</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-18.562448501586914</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3198-4BD3-9B4B-D1F20E95338D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>F = 50Н</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]ChartData!$G$42:$G$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.400001525878906</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32.599998474121094</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]ChartData!$H$42:$H$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>9.8894872665405273</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7578449249267578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9056224822998047</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.024411201477051</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.005081176757813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.341358184814453</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.590681076049805</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.95658016204834</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.913241386413574</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.31385612487793</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.674688339233398</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.319416046142578</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.004990577697754</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.386530876159668</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.5895051956176758</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.1523056030273438</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5345478057861328</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.1248388290405273</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.7278027534484863</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.146026611328125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.9294047355651855</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.7869172096252441</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9890701770782471</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7317354679107666</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.2816739082336426</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4.3862204551696777</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-6.5412192344665527</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-19.373434066772461</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-21.387842178344727</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-22.379287719726563</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-22.619340896606445</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3198-4BD3-9B4B-D1F20E95338D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>F = 65Н</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]ChartData!$I$42:$I$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.166666030883789</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.333333969116211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.666666030883789</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.833333969116211</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.166666030883789</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.333333969116211</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.666666030883789</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.833333969116211</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.166666030883789</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.333333969116211</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31.666666030883789</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31.833333969116211</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32.166667938232422</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.333332061767578</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32.666667938232422</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32.833332061767578</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33.166667938232422</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33.333332061767578</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33.666667938232422</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33.833332061767578</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]ChartData!$J$42:$J$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>14.963131904602051</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.705248832702637</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.40986442565918</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.258179664611816</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.208844184875488</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.414031982421875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.59996223449707</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.879184722900391</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.306622505187988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.47481632232666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.502839088439941</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.444490432739258</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.407357215881348</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.360548973083496</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.007079124450684</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.220868110656738</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.858275413513184</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.392840385437012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.8656549453735352</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.2391767501831055</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.9266748428344727</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.3868293762207031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.48789885640144348</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-4.4000701904296875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-7.3509073257446289</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7.6319456100463867</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-27.978382110595703</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-28.484363555908203</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-27.666786193847656</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-26.959087371826172</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-27.329435348510742</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3198-4BD3-9B4B-D1F20E95338D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="175810240"/>
+        <c:axId val="175810816"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:v>#ССЫЛКА!</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="12700">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="triangle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="38"/>
+                  </c:numLit>
+                </c:xVal>
+                <c:yVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="38"/>
+                  </c:numLit>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-3198-4BD3-9B4B-D1F20E95338D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:v>#ССЫЛКА!</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="12700">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="diamond"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="38"/>
+                  </c:numLit>
+                </c:xVal>
+                <c:yVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="38"/>
+                  </c:numLit>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-3198-4BD3-9B4B-D1F20E95338D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:v>#ССЫЛКА!</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="12700">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="diamond"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="38"/>
+                  </c:numLit>
+                </c:xVal>
+                <c:yVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="41"/>
+                  </c:numLit>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-3198-4BD3-9B4B-D1F20E95338D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:v>#ССЫЛКА!</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="12700">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="x"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="38"/>
+                  </c:numLit>
+                </c:xVal>
+                <c:yVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="38"/>
+                  </c:numLit>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-3198-4BD3-9B4B-D1F20E95338D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="175810240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="35"/>
+          <c:min val="22"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:ea typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="175810816"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="175810816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:ea typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="175810240"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18085002158553981"/>
+          <c:y val="0.62811520103938123"/>
+          <c:w val="0.19421104221775332"/>
+          <c:h val="0.29664365388808839"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman"/>
+          <a:ea typeface="Times New Roman"/>
+          <a:cs typeface="Times New Roman"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75000000000001454" r="0.75000000000001454" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup paperSize="9" orientation="landscape" verticalDpi="0"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId2"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20142499581859721"/>
+          <c:y val="3.3598174600034288E-2"/>
+          <c:w val="0.71818402891331878"/>
+          <c:h val="0.89042772919716373"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>т.2.41</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="11"/>
+              <c:pt idx="0">
+                <c:v>0.46273084037358009</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0.81390613504453624</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1.3485197664011181</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2.049872532139978</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2.6244280292790854</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="12"/>
+              <c:pt idx="0">
+                <c:v>23.959999084469999</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>21.70000076294</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>19.79999923706</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>19</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>19.29999923706</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B021-4C0F-B7EF-6C0E60C2E2F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>т.3.41</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="15"/>
+              <c:pt idx="0">
+                <c:v>0.59525770719765181</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1.1769258749197724</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1.6776150339930829</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2.4324036792887882</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>3.499731183192333</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="14"/>
+              <c:pt idx="0">
+                <c:v>23.959999084469999</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>21.5</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>19.79999923706</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>19.5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>19.75</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B021-4C0F-B7EF-6C0E60C2E2F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="175813696"/>
+        <c:axId val="175814272"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="175813696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:ea typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="175814272"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="175814272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="18"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:ea typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="175813696"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73838668461808965"/>
+          <c:y val="3.6578502208335445E-2"/>
+          <c:w val="0.18169671914130775"/>
+          <c:h val="0.25964835242181494"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman"/>
+          <a:ea typeface="Times New Roman"/>
+          <a:cs typeface="Times New Roman"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75000000000001432" r="0.75000000000001432" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId2"/>
 </c:chartSpace>
 </file>
 
@@ -8302,6 +12081,3800 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>40481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>473869</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Мнимая-ВР">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C87D0E5D-572B-427A-B9EF-27A668C52E5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104777</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>157164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>569120</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Действительная-ВР">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1DB59FB-DECC-4328-9399-3BF2C9CC56CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>116681</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Text Box 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E4EC9A0-2A64-4714-BEDB-DC2EFDED5890}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23812" y="142875"/>
+          <a:ext cx="6067425" cy="735806"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="ru-RU" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Times New Roman"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Вращение левого закрылка.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="ru-RU" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Возбуждение *. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="ru-RU" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Точка </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>FI-19</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="ru-RU" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.0867</cdr:x>
+      <cdr:y>0.01256</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.19781</cdr:x>
+      <cdr:y>0.07538</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 289"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="515104" y="47824"/>
+          <a:ext cx="660129" cy="239194"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" lIns="0" tIns="36000" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Im </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" i="1">
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>м/с</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200" baseline="30000">
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.86613</cdr:x>
+      <cdr:y>0.93972</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96066</cdr:x>
+      <cdr:y>0.98746</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 290"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5145847" y="3578084"/>
+          <a:ext cx="561623" cy="181776"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" i="1">
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t> f</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Гц</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.0734</cdr:x>
+      <cdr:y>0.02232</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.18247</cdr:x>
+      <cdr:y>0.08436</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 291"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="436788" y="85558"/>
+          <a:ext cx="649048" cy="237849"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" lIns="0" tIns="36000" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" i="0">
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Re</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" i="1">
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>м/с</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200" baseline="30000">
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.85327</cdr:x>
+      <cdr:y>0.94541</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.94418</cdr:x>
+      <cdr:y>0.99007</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 292"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5077594" y="3624524"/>
+          <a:ext cx="540982" cy="171218"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" i="1">
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t> f</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200">
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Гц</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>40481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>473869</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="F(A)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E76719-F709-4E51-9766-B7AE67E761CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Text Box 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44C3AECD-54A7-4CC8-A128-D35F8819BC1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23812" y="466725"/>
+          <a:ext cx="6072188" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="ru-RU" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Times New Roman"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Симметричное вращение элеронов.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="ru-RU" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Возбуждение с элеронов в т. Г, Г1. </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E963B4-FFFC-4149-92EC-5E6DA2EA3667}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="1704975"/>
+          <a:ext cx="666750" cy="209551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>F = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="ru-RU" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>54 Н</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="ru-RU" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.10421</cdr:x>
+      <cdr:y>0.01256</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.19781</cdr:x>
+      <cdr:y>0.07538</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 289"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="619125" y="47824"/>
+          <a:ext cx="556108" cy="239194"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" lIns="0" tIns="36000" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="1" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>f</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="800" b="0" i="0" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>рез</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200" b="0" i="0" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman"/>
+              <a:ea typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Гц</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.84048</cdr:x>
+      <cdr:y>0.93722</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.93501</cdr:x>
+      <cdr:y>0.98496</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 290"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4993468" y="3568571"/>
+          <a:ext cx="561623" cy="181775"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" i="0">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200" b="0" i="0" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>м/с</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200" b="0" i="0" kern="1200" baseline="30000">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="АЧХ"/>
+      <sheetName val="Форма"/>
+      <sheetName val="Вращение"/>
+      <sheetName val="f(A)"/>
+      <sheetName val="Markers"/>
+      <sheetName val="ChartData"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="3">
+          <cell r="A3">
+            <v>24</v>
+          </cell>
+          <cell r="B3">
+            <v>-0.81814795732498169</v>
+          </cell>
+          <cell r="C3">
+            <v>24</v>
+          </cell>
+          <cell r="D3">
+            <v>-5.8272643089294434</v>
+          </cell>
+          <cell r="E3">
+            <v>26</v>
+          </cell>
+          <cell r="F3">
+            <v>-12.90718936920166</v>
+          </cell>
+          <cell r="G3">
+            <v>27</v>
+          </cell>
+          <cell r="H3">
+            <v>-18.169242858886719</v>
+          </cell>
+          <cell r="I3">
+            <v>29</v>
+          </cell>
+          <cell r="J3">
+            <v>-28.119304656982422</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>24.200000762939453</v>
+          </cell>
+          <cell r="B4">
+            <v>-0.82704412937164307</v>
+          </cell>
+          <cell r="C4">
+            <v>24.200000762939453</v>
+          </cell>
+          <cell r="D4">
+            <v>-6.0581860542297363</v>
+          </cell>
+          <cell r="E4">
+            <v>26.200000762939453</v>
+          </cell>
+          <cell r="F4">
+            <v>-13.316024780273438</v>
+          </cell>
+          <cell r="G4">
+            <v>27.200000762939453</v>
+          </cell>
+          <cell r="H4">
+            <v>-18.8494873046875</v>
+          </cell>
+          <cell r="I4">
+            <v>29.166666030883789</v>
+          </cell>
+          <cell r="J4">
+            <v>-28.951499938964844</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>24.399999618530273</v>
+          </cell>
+          <cell r="B5">
+            <v>-1.1748884916305542</v>
+          </cell>
+          <cell r="C5">
+            <v>24.399999618530273</v>
+          </cell>
+          <cell r="D5">
+            <v>-6.314084529876709</v>
+          </cell>
+          <cell r="E5">
+            <v>26.399999618530273</v>
+          </cell>
+          <cell r="F5">
+            <v>-13.803609848022461</v>
+          </cell>
+          <cell r="G5">
+            <v>27.399999618530273</v>
+          </cell>
+          <cell r="H5">
+            <v>-19.358917236328125</v>
+          </cell>
+          <cell r="I5">
+            <v>29.333333969116211</v>
+          </cell>
+          <cell r="J5">
+            <v>-29.807823181152344</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>24.600000381469727</v>
+          </cell>
+          <cell r="B6">
+            <v>-1.6394596099853516</v>
+          </cell>
+          <cell r="C6">
+            <v>24.600000381469727</v>
+          </cell>
+          <cell r="D6">
+            <v>-6.624946117401123</v>
+          </cell>
+          <cell r="E6">
+            <v>26.600000381469727</v>
+          </cell>
+          <cell r="F6">
+            <v>-14.364500999450684</v>
+          </cell>
+          <cell r="G6">
+            <v>27.600000381469727</v>
+          </cell>
+          <cell r="H6">
+            <v>-19.956974029541016</v>
+          </cell>
+          <cell r="I6">
+            <v>29.5</v>
+          </cell>
+          <cell r="J6">
+            <v>-30.647661209106445</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>24.799999237060547</v>
+          </cell>
+          <cell r="B7">
+            <v>-2.0776593685150146</v>
+          </cell>
+          <cell r="C7">
+            <v>24.799999237060547</v>
+          </cell>
+          <cell r="D7">
+            <v>-7.1292572021484375</v>
+          </cell>
+          <cell r="E7">
+            <v>26.799999237060547</v>
+          </cell>
+          <cell r="F7">
+            <v>-15.028201103210449</v>
+          </cell>
+          <cell r="G7">
+            <v>27.799999237060547</v>
+          </cell>
+          <cell r="H7">
+            <v>-20.419567108154297</v>
+          </cell>
+          <cell r="I7">
+            <v>29.666666030883789</v>
+          </cell>
+          <cell r="J7">
+            <v>-31.424270629882813</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>25</v>
+          </cell>
+          <cell r="B8">
+            <v>-2.3443863391876221</v>
+          </cell>
+          <cell r="C8">
+            <v>25</v>
+          </cell>
+          <cell r="D8">
+            <v>-7.7240300178527832</v>
+          </cell>
+          <cell r="E8">
+            <v>27</v>
+          </cell>
+          <cell r="F8">
+            <v>-15.639732360839844</v>
+          </cell>
+          <cell r="G8">
+            <v>28</v>
+          </cell>
+          <cell r="H8">
+            <v>-20.879339218139648</v>
+          </cell>
+          <cell r="I8">
+            <v>29.833333969116211</v>
+          </cell>
+          <cell r="J8">
+            <v>-32.189929962158203</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>25.200000762939453</v>
+          </cell>
+          <cell r="B9">
+            <v>-2.5296721458435059</v>
+          </cell>
+          <cell r="C9">
+            <v>25.200000762939453</v>
+          </cell>
+          <cell r="D9">
+            <v>-8.3826408386230469</v>
+          </cell>
+          <cell r="E9">
+            <v>27.200000762939453</v>
+          </cell>
+          <cell r="F9">
+            <v>-16.214553833007813</v>
+          </cell>
+          <cell r="G9">
+            <v>28.200000762939453</v>
+          </cell>
+          <cell r="H9">
+            <v>-21.303844451904297</v>
+          </cell>
+          <cell r="I9">
+            <v>30</v>
+          </cell>
+          <cell r="J9">
+            <v>-33.019004821777344</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>25.399999618530273</v>
+          </cell>
+          <cell r="B10">
+            <v>-2.6214101314544678</v>
+          </cell>
+          <cell r="C10">
+            <v>25.399999618530273</v>
+          </cell>
+          <cell r="D10">
+            <v>-8.9292697906494141</v>
+          </cell>
+          <cell r="E10">
+            <v>27.399999618530273</v>
+          </cell>
+          <cell r="F10">
+            <v>-16.79481315612793</v>
+          </cell>
+          <cell r="G10">
+            <v>28.399999618530273</v>
+          </cell>
+          <cell r="H10">
+            <v>-21.951887130737305</v>
+          </cell>
+          <cell r="I10">
+            <v>30.166666030883789</v>
+          </cell>
+          <cell r="J10">
+            <v>-33.935802459716797</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>25.600000381469727</v>
+          </cell>
+          <cell r="B11">
+            <v>-2.6309487819671631</v>
+          </cell>
+          <cell r="C11">
+            <v>25.600000381469727</v>
+          </cell>
+          <cell r="D11">
+            <v>-9.5362577438354492</v>
+          </cell>
+          <cell r="E11">
+            <v>27.600000381469727</v>
+          </cell>
+          <cell r="F11">
+            <v>-17.492351531982422</v>
+          </cell>
+          <cell r="G11">
+            <v>28.600000381469727</v>
+          </cell>
+          <cell r="H11">
+            <v>-22.697566986083984</v>
+          </cell>
+          <cell r="I11">
+            <v>30.333333969116211</v>
+          </cell>
+          <cell r="J11">
+            <v>-34.951892852783203</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>25.799999237060547</v>
+          </cell>
+          <cell r="B12">
+            <v>-2.6486167907714844</v>
+          </cell>
+          <cell r="C12">
+            <v>25.799999237060547</v>
+          </cell>
+          <cell r="D12">
+            <v>-9.9107036590576172</v>
+          </cell>
+          <cell r="E12">
+            <v>27.799999237060547</v>
+          </cell>
+          <cell r="F12">
+            <v>-18.008213043212891</v>
+          </cell>
+          <cell r="G12">
+            <v>28.799999237060547</v>
+          </cell>
+          <cell r="H12">
+            <v>-23.511421203613281</v>
+          </cell>
+          <cell r="I12">
+            <v>30.5</v>
+          </cell>
+          <cell r="J12">
+            <v>-35.985191345214844</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>26</v>
+          </cell>
+          <cell r="B13">
+            <v>-2.628143310546875</v>
+          </cell>
+          <cell r="C13">
+            <v>26</v>
+          </cell>
+          <cell r="D13">
+            <v>-10.326160430908203</v>
+          </cell>
+          <cell r="E13">
+            <v>28</v>
+          </cell>
+          <cell r="F13">
+            <v>-18.570440292358398</v>
+          </cell>
+          <cell r="G13">
+            <v>29</v>
+          </cell>
+          <cell r="H13">
+            <v>-24.285074234008789</v>
+          </cell>
+          <cell r="I13">
+            <v>30.666666030883789</v>
+          </cell>
+          <cell r="J13">
+            <v>-37.336406707763672</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>26.200000762939453</v>
+          </cell>
+          <cell r="B14">
+            <v>-2.5876333713531494</v>
+          </cell>
+          <cell r="C14">
+            <v>26.200000762939453</v>
+          </cell>
+          <cell r="D14">
+            <v>-10.756730079650879</v>
+          </cell>
+          <cell r="E14">
+            <v>28.200000762939453</v>
+          </cell>
+          <cell r="F14">
+            <v>-19.087162017822266</v>
+          </cell>
+          <cell r="G14">
+            <v>29.200000762939453</v>
+          </cell>
+          <cell r="H14">
+            <v>-25.558658599853516</v>
+          </cell>
+          <cell r="I14">
+            <v>30.833333969116211</v>
+          </cell>
+          <cell r="J14">
+            <v>-38.669910430908203</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>26.399999618530273</v>
+          </cell>
+          <cell r="B15">
+            <v>-2.5395078659057617</v>
+          </cell>
+          <cell r="C15">
+            <v>26.399999618530273</v>
+          </cell>
+          <cell r="D15">
+            <v>-11.270539283752441</v>
+          </cell>
+          <cell r="E15">
+            <v>28.399999618530273</v>
+          </cell>
+          <cell r="F15">
+            <v>-19.614568710327148</v>
+          </cell>
+          <cell r="G15">
+            <v>29.399999618530273</v>
+          </cell>
+          <cell r="H15">
+            <v>-26.727052688598633</v>
+          </cell>
+          <cell r="I15">
+            <v>31</v>
+          </cell>
+          <cell r="J15">
+            <v>-40.194446563720703</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>26.600000381469727</v>
+          </cell>
+          <cell r="B16">
+            <v>-2.5022051334381104</v>
+          </cell>
+          <cell r="C16">
+            <v>26.600000381469727</v>
+          </cell>
+          <cell r="D16">
+            <v>-11.724250793457031</v>
+          </cell>
+          <cell r="E16">
+            <v>28.600000381469727</v>
+          </cell>
+          <cell r="F16">
+            <v>-20.202125549316406</v>
+          </cell>
+          <cell r="G16">
+            <v>29.600000381469727</v>
+          </cell>
+          <cell r="H16">
+            <v>-28.175506591796875</v>
+          </cell>
+          <cell r="I16">
+            <v>31.166666030883789</v>
+          </cell>
+          <cell r="J16">
+            <v>-41.535057067871094</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>26.799999237060547</v>
+          </cell>
+          <cell r="B17">
+            <v>-2.4825830459594727</v>
+          </cell>
+          <cell r="C17">
+            <v>26.799999237060547</v>
+          </cell>
+          <cell r="D17">
+            <v>-12.214192390441895</v>
+          </cell>
+          <cell r="E17">
+            <v>28.799999237060547</v>
+          </cell>
+          <cell r="F17">
+            <v>-20.920085906982422</v>
+          </cell>
+          <cell r="G17">
+            <v>29.799999237060547</v>
+          </cell>
+          <cell r="H17">
+            <v>-29.454330444335938</v>
+          </cell>
+          <cell r="I17">
+            <v>31.333333969116211</v>
+          </cell>
+          <cell r="J17">
+            <v>-43.365020751953125</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>27</v>
+          </cell>
+          <cell r="B18">
+            <v>-2.4300551414489746</v>
+          </cell>
+          <cell r="C18">
+            <v>27</v>
+          </cell>
+          <cell r="D18">
+            <v>-12.878236770629883</v>
+          </cell>
+          <cell r="E18">
+            <v>29</v>
+          </cell>
+          <cell r="F18">
+            <v>-21.783828735351563</v>
+          </cell>
+          <cell r="G18">
+            <v>30</v>
+          </cell>
+          <cell r="H18">
+            <v>-30.518320083618164</v>
+          </cell>
+          <cell r="I18">
+            <v>31.5</v>
+          </cell>
+          <cell r="J18">
+            <v>-45.109661102294922</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>27.200000762939453</v>
+          </cell>
+          <cell r="B19">
+            <v>-2.3701050281524658</v>
+          </cell>
+          <cell r="C19">
+            <v>27.200000762939453</v>
+          </cell>
+          <cell r="D19">
+            <v>-13.719645500183105</v>
+          </cell>
+          <cell r="E19">
+            <v>29.200000762939453</v>
+          </cell>
+          <cell r="F19">
+            <v>-22.778238296508789</v>
+          </cell>
+          <cell r="G19">
+            <v>30.200000762939453</v>
+          </cell>
+          <cell r="H19">
+            <v>-31.578174591064453</v>
+          </cell>
+          <cell r="I19">
+            <v>31.666666030883789</v>
+          </cell>
+          <cell r="J19">
+            <v>-46.780529022216797</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>27.399999618530273</v>
+          </cell>
+          <cell r="B20">
+            <v>-2.2817668914794922</v>
+          </cell>
+          <cell r="C20">
+            <v>27.399999618530273</v>
+          </cell>
+          <cell r="D20">
+            <v>-14.40874195098877</v>
+          </cell>
+          <cell r="E20">
+            <v>29.399999618530273</v>
+          </cell>
+          <cell r="F20">
+            <v>-23.74488639831543</v>
+          </cell>
+          <cell r="G20">
+            <v>30.399999618530273</v>
+          </cell>
+          <cell r="H20">
+            <v>-32.797470092773438</v>
+          </cell>
+          <cell r="I20">
+            <v>31.833333969116211</v>
+          </cell>
+          <cell r="J20">
+            <v>-48.499267578125</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>27.600000381469727</v>
+          </cell>
+          <cell r="B21">
+            <v>-2.1970741748809814</v>
+          </cell>
+          <cell r="C21">
+            <v>27.600000381469727</v>
+          </cell>
+          <cell r="D21">
+            <v>-14.836187362670898</v>
+          </cell>
+          <cell r="E21">
+            <v>29.600000381469727</v>
+          </cell>
+          <cell r="F21">
+            <v>-24.593559265136719</v>
+          </cell>
+          <cell r="G21">
+            <v>30.600000381469727</v>
+          </cell>
+          <cell r="H21">
+            <v>-33.840602874755859</v>
+          </cell>
+          <cell r="I21">
+            <v>32</v>
+          </cell>
+          <cell r="J21">
+            <v>-50.267555236816406</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>27.799999237060547</v>
+          </cell>
+          <cell r="B22">
+            <v>-2.1466248035430908</v>
+          </cell>
+          <cell r="C22">
+            <v>27.799999237060547</v>
+          </cell>
+          <cell r="D22">
+            <v>-15.191197395324707</v>
+          </cell>
+          <cell r="E22">
+            <v>29.799999237060547</v>
+          </cell>
+          <cell r="F22">
+            <v>-25.459318161010742</v>
+          </cell>
+          <cell r="G22">
+            <v>30.799999237060547</v>
+          </cell>
+          <cell r="H22">
+            <v>-35.103244781494141</v>
+          </cell>
+          <cell r="I22">
+            <v>32.166667938232422</v>
+          </cell>
+          <cell r="J22">
+            <v>-51.817012786865234</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>28</v>
+          </cell>
+          <cell r="B23">
+            <v>-2.0989453792572021</v>
+          </cell>
+          <cell r="C23">
+            <v>28</v>
+          </cell>
+          <cell r="D23">
+            <v>-15.314050674438477</v>
+          </cell>
+          <cell r="E23">
+            <v>30</v>
+          </cell>
+          <cell r="F23">
+            <v>-26.408567428588867</v>
+          </cell>
+          <cell r="G23">
+            <v>31</v>
+          </cell>
+          <cell r="H23">
+            <v>-36.532924652099609</v>
+          </cell>
+          <cell r="I23">
+            <v>32.333332061767578</v>
+          </cell>
+          <cell r="J23">
+            <v>-53.381465911865234</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>28.200000762939453</v>
+          </cell>
+          <cell r="B24">
+            <v>-2.0648272037506104</v>
+          </cell>
+          <cell r="C24">
+            <v>28.200000762939453</v>
+          </cell>
+          <cell r="D24">
+            <v>-15.453940391540527</v>
+          </cell>
+          <cell r="E24">
+            <v>30.200000762939453</v>
+          </cell>
+          <cell r="F24">
+            <v>-27.253055572509766</v>
+          </cell>
+          <cell r="G24">
+            <v>31.200000762939453</v>
+          </cell>
+          <cell r="H24">
+            <v>-37.9219970703125</v>
+          </cell>
+          <cell r="I24">
+            <v>32.5</v>
+          </cell>
+          <cell r="J24">
+            <v>-54.787235260009766</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>28.399999618530273</v>
+          </cell>
+          <cell r="B25">
+            <v>-2.016094446182251</v>
+          </cell>
+          <cell r="C25">
+            <v>28.399999618530273</v>
+          </cell>
+          <cell r="D25">
+            <v>-15.540084838867188</v>
+          </cell>
+          <cell r="E25">
+            <v>30.399999618530273</v>
+          </cell>
+          <cell r="F25">
+            <v>-28.197761535644531</v>
+          </cell>
+          <cell r="G25">
+            <v>31.399999618530273</v>
+          </cell>
+          <cell r="H25">
+            <v>-39.292545318603516</v>
+          </cell>
+          <cell r="I25">
+            <v>32.666667938232422</v>
+          </cell>
+          <cell r="J25">
+            <v>-55.818767547607422</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>28.600000381469727</v>
+          </cell>
+          <cell r="B26">
+            <v>-1.9886789321899414</v>
+          </cell>
+          <cell r="C26">
+            <v>28.600000381469727</v>
+          </cell>
+          <cell r="D26">
+            <v>-15.665303230285645</v>
+          </cell>
+          <cell r="E26">
+            <v>30.600000381469727</v>
+          </cell>
+          <cell r="F26">
+            <v>-28.994607925415039</v>
+          </cell>
+          <cell r="G26">
+            <v>31.600000381469727</v>
+          </cell>
+          <cell r="H26">
+            <v>-40.791900634765625</v>
+          </cell>
+          <cell r="I26">
+            <v>32.833332061767578</v>
+          </cell>
+          <cell r="J26">
+            <v>-56.645519256591797</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>28.799999237060547</v>
+          </cell>
+          <cell r="B27">
+            <v>-1.8991826772689819</v>
+          </cell>
+          <cell r="C27">
+            <v>28.799999237060547</v>
+          </cell>
+          <cell r="D27">
+            <v>-15.976139068603516</v>
+          </cell>
+          <cell r="E27">
+            <v>30.799999237060547</v>
+          </cell>
+          <cell r="F27">
+            <v>-29.599946975708008</v>
+          </cell>
+          <cell r="G27">
+            <v>31.799999237060547</v>
+          </cell>
+          <cell r="H27">
+            <v>-41.930263519287109</v>
+          </cell>
+          <cell r="I27">
+            <v>33</v>
+          </cell>
+          <cell r="J27">
+            <v>-57.465145111083984</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>29</v>
+          </cell>
+          <cell r="B28">
+            <v>-1.8418384790420532</v>
+          </cell>
+          <cell r="C28">
+            <v>29</v>
+          </cell>
+          <cell r="D28">
+            <v>-16.326528549194336</v>
+          </cell>
+          <cell r="E28">
+            <v>31</v>
+          </cell>
+          <cell r="F28">
+            <v>-30.006322860717773</v>
+          </cell>
+          <cell r="G28">
+            <v>32</v>
+          </cell>
+          <cell r="H28">
+            <v>-42.603271484375</v>
+          </cell>
+          <cell r="I28">
+            <v>33.166667938232422</v>
+          </cell>
+          <cell r="J28">
+            <v>-60.007781982421875</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>29.200000762939453</v>
+          </cell>
+          <cell r="B29">
+            <v>-1.801224946975708</v>
+          </cell>
+          <cell r="C29">
+            <v>29.200000762939453</v>
+          </cell>
+          <cell r="D29">
+            <v>-16.568803787231445</v>
+          </cell>
+          <cell r="E29">
+            <v>31.200000762939453</v>
+          </cell>
+          <cell r="F29">
+            <v>-29.542575836181641</v>
+          </cell>
+          <cell r="G29">
+            <v>32.200000762939453</v>
+          </cell>
+          <cell r="H29">
+            <v>-43.474605560302734</v>
+          </cell>
+          <cell r="I29">
+            <v>33.333332061767578</v>
+          </cell>
+          <cell r="J29">
+            <v>-37.085994720458984</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>29.399999618530273</v>
+          </cell>
+          <cell r="B30">
+            <v>-1.8057395219802856</v>
+          </cell>
+          <cell r="C30">
+            <v>29.399999618530273</v>
+          </cell>
+          <cell r="D30">
+            <v>-16.857915878295898</v>
+          </cell>
+          <cell r="E30">
+            <v>31.399999618530273</v>
+          </cell>
+          <cell r="F30">
+            <v>-26.559957504272461</v>
+          </cell>
+          <cell r="G30">
+            <v>32.400001525878906</v>
+          </cell>
+          <cell r="H30">
+            <v>-33.502052307128906</v>
+          </cell>
+          <cell r="I30">
+            <v>33.5</v>
+          </cell>
+          <cell r="J30">
+            <v>-27.938209533691406</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>29.600000381469727</v>
+          </cell>
+          <cell r="B31">
+            <v>-1.8084714412689209</v>
+          </cell>
+          <cell r="C31">
+            <v>29.600000381469727</v>
+          </cell>
+          <cell r="D31">
+            <v>-17.024030685424805</v>
+          </cell>
+          <cell r="E31">
+            <v>31.600000381469727</v>
+          </cell>
+          <cell r="F31">
+            <v>-24.400094985961914</v>
+          </cell>
+          <cell r="G31">
+            <v>32.599998474121094</v>
+          </cell>
+          <cell r="H31">
+            <v>-29.865949630737305</v>
+          </cell>
+          <cell r="I31">
+            <v>33.666667938232422</v>
+          </cell>
+          <cell r="J31">
+            <v>-26.651756286621094</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>29.799999237060547</v>
+          </cell>
+          <cell r="B32">
+            <v>-1.8143644332885742</v>
+          </cell>
+          <cell r="C32">
+            <v>29.799999237060547</v>
+          </cell>
+          <cell r="D32">
+            <v>-17.053213119506836</v>
+          </cell>
+          <cell r="E32">
+            <v>31.799999237060547</v>
+          </cell>
+          <cell r="F32">
+            <v>-20.390869140625</v>
+          </cell>
+          <cell r="G32">
+            <v>32.799999237060547</v>
+          </cell>
+          <cell r="H32">
+            <v>-25.573381423950195</v>
+          </cell>
+          <cell r="I32">
+            <v>33.833332061767578</v>
+          </cell>
+          <cell r="J32">
+            <v>-26.673139572143555</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>30</v>
+          </cell>
+          <cell r="B33">
+            <v>-1.8107641935348511</v>
+          </cell>
+          <cell r="C33">
+            <v>30</v>
+          </cell>
+          <cell r="D33">
+            <v>-16.614734649658203</v>
+          </cell>
+          <cell r="E33">
+            <v>32</v>
+          </cell>
+          <cell r="F33">
+            <v>-16.993757247924805</v>
+          </cell>
+          <cell r="G33">
+            <v>33</v>
+          </cell>
+          <cell r="H33">
+            <v>-22.797933578491211</v>
+          </cell>
+          <cell r="I33">
+            <v>34</v>
+          </cell>
+          <cell r="J33">
+            <v>-28.031486511230469</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>30.200000762939453</v>
+          </cell>
+          <cell r="B34">
+            <v>-1.7866988182067871</v>
+          </cell>
+          <cell r="C34">
+            <v>30.200000762939453</v>
+          </cell>
+          <cell r="D34">
+            <v>-15.501371383666992</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>30.399999618530273</v>
+          </cell>
+          <cell r="B35">
+            <v>-1.757227897644043</v>
+          </cell>
+          <cell r="C35">
+            <v>30.399999618530273</v>
+          </cell>
+          <cell r="D35">
+            <v>-13.73705005645752</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>30.600000381469727</v>
+          </cell>
+          <cell r="B36">
+            <v>-1.7169473171234131</v>
+          </cell>
+          <cell r="C36">
+            <v>30.600000381469727</v>
+          </cell>
+          <cell r="D36">
+            <v>-12.320948600769043</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>30.799999237060547</v>
+          </cell>
+          <cell r="B37">
+            <v>-1.6586606502532959</v>
+          </cell>
+          <cell r="C37">
+            <v>30.799999237060547</v>
+          </cell>
+          <cell r="D37">
+            <v>-11.547895431518555</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>31</v>
+          </cell>
+          <cell r="B38">
+            <v>-1.6023780107498169</v>
+          </cell>
+          <cell r="C38">
+            <v>31</v>
+          </cell>
+          <cell r="D38">
+            <v>-10.960291862487793</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>24</v>
+          </cell>
+          <cell r="B42">
+            <v>0.46500074863433838</v>
+          </cell>
+          <cell r="C42">
+            <v>24</v>
+          </cell>
+          <cell r="D42">
+            <v>1.8317927122116089</v>
+          </cell>
+          <cell r="E42">
+            <v>26</v>
+          </cell>
+          <cell r="F42">
+            <v>7.2091703414916992</v>
+          </cell>
+          <cell r="G42">
+            <v>27</v>
+          </cell>
+          <cell r="H42">
+            <v>9.8894872665405273</v>
+          </cell>
+          <cell r="I42">
+            <v>29</v>
+          </cell>
+          <cell r="J42">
+            <v>14.963131904602051</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>24.200000762939453</v>
+          </cell>
+          <cell r="B43">
+            <v>0.81355535984039307</v>
+          </cell>
+          <cell r="C43">
+            <v>24.200000762939453</v>
+          </cell>
+          <cell r="D43">
+            <v>2.2940785884857178</v>
+          </cell>
+          <cell r="E43">
+            <v>26.200000762939453</v>
+          </cell>
+          <cell r="F43">
+            <v>7.2448315620422363</v>
+          </cell>
+          <cell r="G43">
+            <v>27.200000762939453</v>
+          </cell>
+          <cell r="H43">
+            <v>9.7578449249267578</v>
+          </cell>
+          <cell r="I43">
+            <v>29.166666030883789</v>
+          </cell>
+          <cell r="J43">
+            <v>14.705248832702637</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>24.399999618530273</v>
+          </cell>
+          <cell r="B44">
+            <v>0.97336697578430176</v>
+          </cell>
+          <cell r="C44">
+            <v>24.399999618530273</v>
+          </cell>
+          <cell r="D44">
+            <v>2.7555899620056152</v>
+          </cell>
+          <cell r="E44">
+            <v>26.399999618530273</v>
+          </cell>
+          <cell r="F44">
+            <v>7.412602424621582</v>
+          </cell>
+          <cell r="G44">
+            <v>27.399999618530273</v>
+          </cell>
+          <cell r="H44">
+            <v>9.9056224822998047</v>
+          </cell>
+          <cell r="I44">
+            <v>29.333333969116211</v>
+          </cell>
+          <cell r="J44">
+            <v>14.40986442565918</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>24.600000381469727</v>
+          </cell>
+          <cell r="B45">
+            <v>1.0787351131439209</v>
+          </cell>
+          <cell r="C45">
+            <v>24.600000381469727</v>
+          </cell>
+          <cell r="D45">
+            <v>3.3966636657714844</v>
+          </cell>
+          <cell r="E45">
+            <v>26.600000381469727</v>
+          </cell>
+          <cell r="F45">
+            <v>7.5319766998291016</v>
+          </cell>
+          <cell r="G45">
+            <v>27.600000381469727</v>
+          </cell>
+          <cell r="H45">
+            <v>10.024411201477051</v>
+          </cell>
+          <cell r="I45">
+            <v>29.5</v>
+          </cell>
+          <cell r="J45">
+            <v>14.258179664611816</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>24.799999237060547</v>
+          </cell>
+          <cell r="B46">
+            <v>0.94178706407546997</v>
+          </cell>
+          <cell r="C46">
+            <v>24.799999237060547</v>
+          </cell>
+          <cell r="D46">
+            <v>4.2234983444213867</v>
+          </cell>
+          <cell r="E46">
+            <v>26.799999237060547</v>
+          </cell>
+          <cell r="F46">
+            <v>7.5534157752990723</v>
+          </cell>
+          <cell r="G46">
+            <v>27.799999237060547</v>
+          </cell>
+          <cell r="H46">
+            <v>10.005081176757813</v>
+          </cell>
+          <cell r="I46">
+            <v>29.666666030883789</v>
+          </cell>
+          <cell r="J46">
+            <v>14.208844184875488</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>25</v>
+          </cell>
+          <cell r="B47">
+            <v>0.71014899015426636</v>
+          </cell>
+          <cell r="C47">
+            <v>25</v>
+          </cell>
+          <cell r="D47">
+            <v>4.9639973640441895</v>
+          </cell>
+          <cell r="E47">
+            <v>27</v>
+          </cell>
+          <cell r="F47">
+            <v>7.4361982345581055</v>
+          </cell>
+          <cell r="G47">
+            <v>28</v>
+          </cell>
+          <cell r="H47">
+            <v>10.341358184814453</v>
+          </cell>
+          <cell r="I47">
+            <v>29.833333969116211</v>
+          </cell>
+          <cell r="J47">
+            <v>14.414031982421875</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>25.200000762939453</v>
+          </cell>
+          <cell r="B48">
+            <v>0.46841427683830261</v>
+          </cell>
+          <cell r="C48">
+            <v>25.200000762939453</v>
+          </cell>
+          <cell r="D48">
+            <v>5.2978711128234863</v>
+          </cell>
+          <cell r="E48">
+            <v>27.200000762939453</v>
+          </cell>
+          <cell r="F48">
+            <v>7.4676952362060547</v>
+          </cell>
+          <cell r="G48">
+            <v>28.200000762939453</v>
+          </cell>
+          <cell r="H48">
+            <v>10.590681076049805</v>
+          </cell>
+          <cell r="I48">
+            <v>30</v>
+          </cell>
+          <cell r="J48">
+            <v>14.59996223449707</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>25.399999618530273</v>
+          </cell>
+          <cell r="B49">
+            <v>0.229460209608078</v>
+          </cell>
+          <cell r="C49">
+            <v>25.399999618530273</v>
+          </cell>
+          <cell r="D49">
+            <v>5.5824794769287109</v>
+          </cell>
+          <cell r="E49">
+            <v>27.399999618530273</v>
+          </cell>
+          <cell r="F49">
+            <v>7.5491795539855957</v>
+          </cell>
+          <cell r="G49">
+            <v>28.399999618530273</v>
+          </cell>
+          <cell r="H49">
+            <v>10.95658016204834</v>
+          </cell>
+          <cell r="I49">
+            <v>30.166666030883789</v>
+          </cell>
+          <cell r="J49">
+            <v>14.879184722900391</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>25.600000381469727</v>
+          </cell>
+          <cell r="B50">
+            <v>3.4245610237121582E-2</v>
+          </cell>
+          <cell r="C50">
+            <v>25.600000381469727</v>
+          </cell>
+          <cell r="D50">
+            <v>5.5448403358459473</v>
+          </cell>
+          <cell r="E50">
+            <v>27.600000381469727</v>
+          </cell>
+          <cell r="F50">
+            <v>7.5117483139038086</v>
+          </cell>
+          <cell r="G50">
+            <v>28.600000381469727</v>
+          </cell>
+          <cell r="H50">
+            <v>10.913241386413574</v>
+          </cell>
+          <cell r="I50">
+            <v>30.333333969116211</v>
+          </cell>
+          <cell r="J50">
+            <v>15.306622505187988</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>25.799999237060547</v>
+          </cell>
+          <cell r="B51">
+            <v>-0.13164454698562622</v>
+          </cell>
+          <cell r="C51">
+            <v>25.799999237060547</v>
+          </cell>
+          <cell r="D51">
+            <v>5.3498435020446777</v>
+          </cell>
+          <cell r="E51">
+            <v>27.799999237060547</v>
+          </cell>
+          <cell r="F51">
+            <v>7.4643654823303223</v>
+          </cell>
+          <cell r="G51">
+            <v>28.799999237060547</v>
+          </cell>
+          <cell r="H51">
+            <v>11.31385612487793</v>
+          </cell>
+          <cell r="I51">
+            <v>30.5</v>
+          </cell>
+          <cell r="J51">
+            <v>15.47481632232666</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>26</v>
+          </cell>
+          <cell r="B52">
+            <v>-0.30739346146583557</v>
+          </cell>
+          <cell r="C52">
+            <v>26</v>
+          </cell>
+          <cell r="D52">
+            <v>5.1655669212341309</v>
+          </cell>
+          <cell r="E52">
+            <v>28</v>
+          </cell>
+          <cell r="F52">
+            <v>7.3450584411621094</v>
+          </cell>
+          <cell r="G52">
+            <v>29</v>
+          </cell>
+          <cell r="H52">
+            <v>11.674688339233398</v>
+          </cell>
+          <cell r="I52">
+            <v>30.666666030883789</v>
+          </cell>
+          <cell r="J52">
+            <v>15.502839088439941</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>26.200000762939453</v>
+          </cell>
+          <cell r="B53">
+            <v>-0.43980365991592407</v>
+          </cell>
+          <cell r="C53">
+            <v>26.200000762939453</v>
+          </cell>
+          <cell r="D53">
+            <v>4.8718457221984863</v>
+          </cell>
+          <cell r="E53">
+            <v>28.200000762939453</v>
+          </cell>
+          <cell r="F53">
+            <v>7.2787423133850098</v>
+          </cell>
+          <cell r="G53">
+            <v>29.200000762939453</v>
+          </cell>
+          <cell r="H53">
+            <v>11.319416046142578</v>
+          </cell>
+          <cell r="I53">
+            <v>30.833333969116211</v>
+          </cell>
+          <cell r="J53">
+            <v>15.444490432739258</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>26.399999618530273</v>
+          </cell>
+          <cell r="B54">
+            <v>-0.53793632984161377</v>
+          </cell>
+          <cell r="C54">
+            <v>26.399999618530273</v>
+          </cell>
+          <cell r="D54">
+            <v>4.6701545715332031</v>
+          </cell>
+          <cell r="E54">
+            <v>28.399999618530273</v>
+          </cell>
+          <cell r="F54">
+            <v>7.2180542945861816</v>
+          </cell>
+          <cell r="G54">
+            <v>29.399999618530273</v>
+          </cell>
+          <cell r="H54">
+            <v>11.004990577697754</v>
+          </cell>
+          <cell r="I54">
+            <v>31</v>
+          </cell>
+          <cell r="J54">
+            <v>15.407357215881348</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>26.600000381469727</v>
+          </cell>
+          <cell r="B55">
+            <v>-0.64381444454193115</v>
+          </cell>
+          <cell r="C55">
+            <v>26.600000381469727</v>
+          </cell>
+          <cell r="D55">
+            <v>4.4206113815307617</v>
+          </cell>
+          <cell r="E55">
+            <v>28.600000381469727</v>
+          </cell>
+          <cell r="F55">
+            <v>7.0913829803466797</v>
+          </cell>
+          <cell r="G55">
+            <v>29.600000381469727</v>
+          </cell>
+          <cell r="H55">
+            <v>10.386530876159668</v>
+          </cell>
+          <cell r="I55">
+            <v>31.166666030883789</v>
+          </cell>
+          <cell r="J55">
+            <v>15.360548973083496</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>26.799999237060547</v>
+          </cell>
+          <cell r="B56">
+            <v>-0.74001091718673706</v>
+          </cell>
+          <cell r="C56">
+            <v>26.799999237060547</v>
+          </cell>
+          <cell r="D56">
+            <v>4.0885767936706543</v>
+          </cell>
+          <cell r="E56">
+            <v>28.799999237060547</v>
+          </cell>
+          <cell r="F56">
+            <v>6.9398550987243652</v>
+          </cell>
+          <cell r="G56">
+            <v>29.799999237060547</v>
+          </cell>
+          <cell r="H56">
+            <v>9.5895051956176758</v>
+          </cell>
+          <cell r="I56">
+            <v>31.333333969116211</v>
+          </cell>
+          <cell r="J56">
+            <v>14.007079124450684</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>27</v>
+          </cell>
+          <cell r="B57">
+            <v>-0.83623051643371582</v>
+          </cell>
+          <cell r="C57">
+            <v>27</v>
+          </cell>
+          <cell r="D57">
+            <v>3.7223250865936279</v>
+          </cell>
+          <cell r="E57">
+            <v>29</v>
+          </cell>
+          <cell r="F57">
+            <v>6.7100448608398438</v>
+          </cell>
+          <cell r="G57">
+            <v>30</v>
+          </cell>
+          <cell r="H57">
+            <v>9.1523056030273438</v>
+          </cell>
+          <cell r="I57">
+            <v>31.5</v>
+          </cell>
+          <cell r="J57">
+            <v>13.220868110656738</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>27.200000762939453</v>
+          </cell>
+          <cell r="B58">
+            <v>-0.94761037826538086</v>
+          </cell>
+          <cell r="C58">
+            <v>27.200000762939453</v>
+          </cell>
+          <cell r="D58">
+            <v>3.0612850189208984</v>
+          </cell>
+          <cell r="E58">
+            <v>29.200000762939453</v>
+          </cell>
+          <cell r="F58">
+            <v>6.2871532440185547</v>
+          </cell>
+          <cell r="G58">
+            <v>30.200000762939453</v>
+          </cell>
+          <cell r="H58">
+            <v>8.5345478057861328</v>
+          </cell>
+          <cell r="I58">
+            <v>31.666666030883789</v>
+          </cell>
+          <cell r="J58">
+            <v>11.858275413513184</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>27.399999618530273</v>
+          </cell>
+          <cell r="B59">
+            <v>-1.0140016078948975</v>
+          </cell>
+          <cell r="C59">
+            <v>27.399999618530273</v>
+          </cell>
+          <cell r="D59">
+            <v>2.5093460083007813</v>
+          </cell>
+          <cell r="E59">
+            <v>29.399999618530273</v>
+          </cell>
+          <cell r="F59">
+            <v>5.4466133117675781</v>
+          </cell>
+          <cell r="G59">
+            <v>30.399999618530273</v>
+          </cell>
+          <cell r="H59">
+            <v>8.1248388290405273</v>
+          </cell>
+          <cell r="I59">
+            <v>31.833333969116211</v>
+          </cell>
+          <cell r="J59">
+            <v>10.392840385437012</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>27.600000381469727</v>
+          </cell>
+          <cell r="B60">
+            <v>-1.0512732267379761</v>
+          </cell>
+          <cell r="C60">
+            <v>27.600000381469727</v>
+          </cell>
+          <cell r="D60">
+            <v>1.9708997011184692</v>
+          </cell>
+          <cell r="E60">
+            <v>29.600000381469727</v>
+          </cell>
+          <cell r="F60">
+            <v>4.5842175483703613</v>
+          </cell>
+          <cell r="G60">
+            <v>30.600000381469727</v>
+          </cell>
+          <cell r="H60">
+            <v>7.7278027534484863</v>
+          </cell>
+          <cell r="I60">
+            <v>32</v>
+          </cell>
+          <cell r="J60">
+            <v>8.8656549453735352</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>27.799999237060547</v>
+          </cell>
+          <cell r="B61">
+            <v>-1.0771911144256592</v>
+          </cell>
+          <cell r="C61">
+            <v>27.799999237060547</v>
+          </cell>
+          <cell r="D61">
+            <v>1.4095746278762817</v>
+          </cell>
+          <cell r="E61">
+            <v>29.799999237060547</v>
+          </cell>
+          <cell r="F61">
+            <v>3.7740323543548584</v>
+          </cell>
+          <cell r="G61">
+            <v>30.799999237060547</v>
+          </cell>
+          <cell r="H61">
+            <v>7.146026611328125</v>
+          </cell>
+          <cell r="I61">
+            <v>32.166667938232422</v>
+          </cell>
+          <cell r="J61">
+            <v>7.2391767501831055</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>28</v>
+          </cell>
+          <cell r="B62">
+            <v>-1.1028810739517212</v>
+          </cell>
+          <cell r="C62">
+            <v>28</v>
+          </cell>
+          <cell r="D62">
+            <v>0.91519743204116821</v>
+          </cell>
+          <cell r="E62">
+            <v>30</v>
+          </cell>
+          <cell r="F62">
+            <v>3.0451080799102783</v>
+          </cell>
+          <cell r="G62">
+            <v>31</v>
+          </cell>
+          <cell r="H62">
+            <v>6.9294047355651855</v>
+          </cell>
+          <cell r="I62">
+            <v>32.333332061767578</v>
+          </cell>
+          <cell r="J62">
+            <v>4.9266748428344727</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>28.200000762939453</v>
+          </cell>
+          <cell r="B63">
+            <v>-1.1470880508422852</v>
+          </cell>
+          <cell r="C63">
+            <v>28.200000762939453</v>
+          </cell>
+          <cell r="D63">
+            <v>0.38190582394599915</v>
+          </cell>
+          <cell r="E63">
+            <v>30.200000762939453</v>
+          </cell>
+          <cell r="F63">
+            <v>2.0704600811004639</v>
+          </cell>
+          <cell r="G63">
+            <v>31.200000762939453</v>
+          </cell>
+          <cell r="H63">
+            <v>5.7869172096252441</v>
+          </cell>
+          <cell r="I63">
+            <v>32.5</v>
+          </cell>
+          <cell r="J63">
+            <v>2.3868293762207031</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>28.399999618530273</v>
+          </cell>
+          <cell r="B64">
+            <v>-1.1832976341247559</v>
+          </cell>
+          <cell r="C64">
+            <v>28.399999618530273</v>
+          </cell>
+          <cell r="D64">
+            <v>-9.2401161789894104E-2</v>
+          </cell>
+          <cell r="E64">
+            <v>30.399999618530273</v>
+          </cell>
+          <cell r="F64">
+            <v>0.82232415676116943</v>
+          </cell>
+          <cell r="G64">
+            <v>31.399999618530273</v>
+          </cell>
+          <cell r="H64">
+            <v>3.9890701770782471</v>
+          </cell>
+          <cell r="I64">
+            <v>32.666667938232422</v>
+          </cell>
+          <cell r="J64">
+            <v>-0.48789885640144348</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>28.600000381469727</v>
+          </cell>
+          <cell r="B65">
+            <v>-1.2485735416412354</v>
+          </cell>
+          <cell r="C65">
+            <v>28.600000381469727</v>
+          </cell>
+          <cell r="D65">
+            <v>-0.52535402774810791</v>
+          </cell>
+          <cell r="E65">
+            <v>30.600000381469727</v>
+          </cell>
+          <cell r="F65">
+            <v>-0.66770446300506592</v>
+          </cell>
+          <cell r="G65">
+            <v>31.600000381469727</v>
+          </cell>
+          <cell r="H65">
+            <v>1.7317354679107666</v>
+          </cell>
+          <cell r="I65">
+            <v>32.833332061767578</v>
+          </cell>
+          <cell r="J65">
+            <v>-4.4000701904296875</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>28.799999237060547</v>
+          </cell>
+          <cell r="B66">
+            <v>-1.2790981531143188</v>
+          </cell>
+          <cell r="C66">
+            <v>28.799999237060547</v>
+          </cell>
+          <cell r="D66">
+            <v>-1.0449081659317017</v>
+          </cell>
+          <cell r="E66">
+            <v>30.799999237060547</v>
+          </cell>
+          <cell r="F66">
+            <v>-2.5874719619750977</v>
+          </cell>
+          <cell r="G66">
+            <v>31.799999237060547</v>
+          </cell>
+          <cell r="H66">
+            <v>-1.2816739082336426</v>
+          </cell>
+          <cell r="I66">
+            <v>33</v>
+          </cell>
+          <cell r="J66">
+            <v>-7.3509073257446289</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>29</v>
+          </cell>
+          <cell r="B67">
+            <v>-1.269817590713501</v>
+          </cell>
+          <cell r="C67">
+            <v>29</v>
+          </cell>
+          <cell r="D67">
+            <v>-1.7350887060165405</v>
+          </cell>
+          <cell r="E67">
+            <v>31</v>
+          </cell>
+          <cell r="F67">
+            <v>-4.8142518997192383</v>
+          </cell>
+          <cell r="G67">
+            <v>32</v>
+          </cell>
+          <cell r="H67">
+            <v>-4.3862204551696777</v>
+          </cell>
+          <cell r="I67">
+            <v>33.166667938232422</v>
+          </cell>
+          <cell r="J67">
+            <v>-7.6319456100463867</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>29.200000762939453</v>
+          </cell>
+          <cell r="B68">
+            <v>-1.2392308712005615</v>
+          </cell>
+          <cell r="C68">
+            <v>29.200000762939453</v>
+          </cell>
+          <cell r="D68">
+            <v>-2.573319673538208</v>
+          </cell>
+          <cell r="E68">
+            <v>31.200000762939453</v>
+          </cell>
+          <cell r="F68">
+            <v>-8.2064189910888672</v>
+          </cell>
+          <cell r="G68">
+            <v>32.200000762939453</v>
+          </cell>
+          <cell r="H68">
+            <v>-6.5412192344665527</v>
+          </cell>
+          <cell r="I68">
+            <v>33.333332061767578</v>
+          </cell>
+          <cell r="J68">
+            <v>-27.978382110595703</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>29.399999618530273</v>
+          </cell>
+          <cell r="B69">
+            <v>-1.2320655584335327</v>
+          </cell>
+          <cell r="C69">
+            <v>29.399999618530273</v>
+          </cell>
+          <cell r="D69">
+            <v>-3.3187341690063477</v>
+          </cell>
+          <cell r="E69">
+            <v>31.399999618530273</v>
+          </cell>
+          <cell r="F69">
+            <v>-12.936838150024414</v>
+          </cell>
+          <cell r="G69">
+            <v>32.400001525878906</v>
+          </cell>
+          <cell r="H69">
+            <v>-19.373434066772461</v>
+          </cell>
+          <cell r="I69">
+            <v>33.5</v>
+          </cell>
+          <cell r="J69">
+            <v>-28.484363555908203</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>29.600000381469727</v>
+          </cell>
+          <cell r="B70">
+            <v>-1.2341903448104858</v>
+          </cell>
+          <cell r="C70">
+            <v>29.600000381469727</v>
+          </cell>
+          <cell r="D70">
+            <v>-4.173738956451416</v>
+          </cell>
+          <cell r="E70">
+            <v>31.600000381469727</v>
+          </cell>
+          <cell r="F70">
+            <v>-15.198762893676758</v>
+          </cell>
+          <cell r="G70">
+            <v>32.599998474121094</v>
+          </cell>
+          <cell r="H70">
+            <v>-21.387842178344727</v>
+          </cell>
+          <cell r="I70">
+            <v>33.666667938232422</v>
+          </cell>
+          <cell r="J70">
+            <v>-27.666786193847656</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>29.799999237060547</v>
+          </cell>
+          <cell r="B71">
+            <v>-1.2788169384002686</v>
+          </cell>
+          <cell r="C71">
+            <v>29.799999237060547</v>
+          </cell>
+          <cell r="D71">
+            <v>-5.3679533004760742</v>
+          </cell>
+          <cell r="E71">
+            <v>31.799999237060547</v>
+          </cell>
+          <cell r="F71">
+            <v>-17.561029434204102</v>
+          </cell>
+          <cell r="G71">
+            <v>32.799999237060547</v>
+          </cell>
+          <cell r="H71">
+            <v>-22.379287719726563</v>
+          </cell>
+          <cell r="I71">
+            <v>33.833332061767578</v>
+          </cell>
+          <cell r="J71">
+            <v>-26.959087371826172</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>30</v>
+          </cell>
+          <cell r="B72">
+            <v>-1.3278870582580566</v>
+          </cell>
+          <cell r="C72">
+            <v>30</v>
+          </cell>
+          <cell r="D72">
+            <v>-6.9554872512817383</v>
+          </cell>
+          <cell r="E72">
+            <v>32</v>
+          </cell>
+          <cell r="F72">
+            <v>-18.562448501586914</v>
+          </cell>
+          <cell r="G72">
+            <v>33</v>
+          </cell>
+          <cell r="H72">
+            <v>-22.619340896606445</v>
+          </cell>
+          <cell r="I72">
+            <v>34</v>
+          </cell>
+          <cell r="J72">
+            <v>-27.329435348510742</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>30.200000762939453</v>
+          </cell>
+          <cell r="B73">
+            <v>-1.3947110176086426</v>
+          </cell>
+          <cell r="C73">
+            <v>30.200000762939453</v>
+          </cell>
+          <cell r="D73">
+            <v>-8.6936807632446289</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>30.399999618530273</v>
+          </cell>
+          <cell r="B74">
+            <v>-1.4585775136947632</v>
+          </cell>
+          <cell r="C74">
+            <v>30.399999618530273</v>
+          </cell>
+          <cell r="D74">
+            <v>-10.181264877319336</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>30.600000381469727</v>
+          </cell>
+          <cell r="B75">
+            <v>-1.5006942749023438</v>
+          </cell>
+          <cell r="C75">
+            <v>30.600000381469727</v>
+          </cell>
+          <cell r="D75">
+            <v>-10.907645225524902</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>30.799999237060547</v>
+          </cell>
+          <cell r="B76">
+            <v>-1.5549843311309814</v>
+          </cell>
+          <cell r="C76">
+            <v>30.799999237060547</v>
+          </cell>
+          <cell r="D76">
+            <v>-11.239775657653809</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>31</v>
+          </cell>
+          <cell r="B77">
+            <v>-1.6156613826751709</v>
+          </cell>
+          <cell r="C77">
+            <v>31</v>
+          </cell>
+          <cell r="D77">
+            <v>-11.53823184967041</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -8597,6 +16170,893 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Стандартная">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Стандартная">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Стандартная">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Стандартная">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Стандартная">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Стандартная">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride3.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Стандартная">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="1F497D"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="EEECE1"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81BD"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="C0504D"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="9BBB59"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="8064A2"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4BACC6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F79646"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0000FF"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="800080"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Стандартная">
+    <a:majorFont>
+      <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Стандартная">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3406B6-B537-451D-BC5F-1BF62CD9F844}">
   <dimension ref="A1"/>
@@ -8634,10 +17094,1043 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9E1E0D-5F10-4C4C-8945-2EBD06D66BC3}">
+  <dimension ref="A1:J55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3823255-2A8F-4FC4-847E-C4C254012FBF}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D046C3E-3845-4A82-A210-3FE8A7E61C9E}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>

--- a/templates/Base.xlsx
+++ b/templates/Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\Projects\ResponseAnalyzer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76B7E10-DC66-4106-B831-9E3C51B56E4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9253AB-FB8D-4FAD-B896-D8EFD6D8C0E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{A8E955EB-F13F-4C65-9C3C-6EA905D67102}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{A8E955EB-F13F-4C65-9C3C-6EA905D67102}"/>
   </bookViews>
   <sheets>
     <sheet name="АЧХ" sheetId="2" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <sheet name="f(A)" sheetId="5" r:id="rId4"/>
     <sheet name="Markers" sheetId="3" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4276,238 +4273,232 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]ChartData!$A$3:$A$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>26.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>26.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>26.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>27.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>28.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>28.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>28.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>28.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>29.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>30.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>30.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>30.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>30.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>31</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="36"/>
+              <c:pt idx="0">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>24.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>24.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>24.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>24.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>25.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>25.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>25.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>25.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>26</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>26.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>26.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>26.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>26.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>27.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>27.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>27.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>27.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>28</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>28.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>28.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>28.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>28.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>29</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>29.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>29.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>29.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>29.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>30.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>30.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>30.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>30.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>31</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]ChartData!$B$3:$B$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>-0.81814795732498169</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.82704412937164307</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.1748884916305542</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.6394596099853516</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.0776593685150146</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2.3443863391876221</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2.5296721458435059</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-2.6214101314544678</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2.6309487819671631</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.6486167907714844</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2.628143310546875</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.5876333713531494</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2.5395078659057617</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-2.5022051334381104</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2.4825830459594727</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-2.4300551414489746</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-2.3701050281524658</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-2.2817668914794922</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-2.1970741748809814</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-2.1466248035430908</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-2.0989453792572021</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-2.0648272037506104</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-2.016094446182251</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-1.9886789321899414</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-1.8991826772689819</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-1.8418384790420532</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-1.801224946975708</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-1.8057395219802856</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-1.8084714412689209</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-1.8143644332885742</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-1.8107641935348511</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-1.7866988182067871</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-1.757227897644043</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-1.7169473171234131</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-1.6586606502532959</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-1.6023780107498169</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="36"/>
+              <c:pt idx="0">
+                <c:v>-0.81814795732498169</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>-0.82704412937164307</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>-1.1748884916305542</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>-1.6394596099853516</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>-2.0776593685150146</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>-2.3443863391876221</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>-2.5296721458435059</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>-2.6214101314544678</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>-2.6309487819671631</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>-2.6486167907714844</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>-2.628143310546875</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>-2.5876333713531494</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>-2.5395078659057617</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>-2.5022051334381104</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>-2.4825830459594727</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>-2.4300551414489746</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>-2.3701050281524658</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>-2.2817668914794922</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>-2.1970741748809814</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>-2.1466248035430908</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>-2.0989453792572021</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>-2.0648272037506104</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>-2.016094446182251</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>-1.9886789321899414</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>-1.8991826772689819</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>-1.8418384790420532</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>-1.801224946975708</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>-1.8057395219802856</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>-1.8084714412689209</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>-1.8143644332885742</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>-1.8107641935348511</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>-1.7866988182067871</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>-1.757227897644043</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>-1.7169473171234131</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>-1.6586606502532959</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>-1.6023780107498169</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
@@ -4547,238 +4538,232 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]ChartData!$C$3:$C$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>26.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>26.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>26.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>27.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>28.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>28.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>28.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>28.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>29.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>30.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>30.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>30.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>30.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>31</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="36"/>
+              <c:pt idx="0">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>24.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>24.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>24.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>24.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>25.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>25.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>25.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>25.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>26</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>26.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>26.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>26.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>26.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>27.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>27.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>27.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>27.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>28</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>28.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>28.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>28.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>28.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>29</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>29.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>29.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>29.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>29.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>30.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>30.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>30.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>30.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>31</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]ChartData!$D$3:$D$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>-5.8272643089294434</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-6.0581860542297363</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-6.314084529876709</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-6.624946117401123</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-7.1292572021484375</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-7.7240300178527832</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-8.3826408386230469</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-8.9292697906494141</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-9.5362577438354492</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-9.9107036590576172</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-10.326160430908203</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-10.756730079650879</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-11.270539283752441</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-11.724250793457031</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-12.214192390441895</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-12.878236770629883</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-13.719645500183105</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-14.40874195098877</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-14.836187362670898</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-15.191197395324707</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-15.314050674438477</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-15.453940391540527</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-15.540084838867188</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-15.665303230285645</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-15.976139068603516</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-16.326528549194336</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-16.568803787231445</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-16.857915878295898</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-17.024030685424805</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-17.053213119506836</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-16.614734649658203</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-15.501371383666992</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-13.73705005645752</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-12.320948600769043</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-11.547895431518555</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-10.960291862487793</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="36"/>
+              <c:pt idx="0">
+                <c:v>-5.8272643089294434</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>-6.0581860542297363</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>-6.314084529876709</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>-6.624946117401123</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>-7.1292572021484375</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>-7.7240300178527832</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>-8.3826408386230469</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>-8.9292697906494141</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>-9.5362577438354492</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>-9.9107036590576172</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>-10.326160430908203</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>-10.756730079650879</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>-11.270539283752441</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>-11.724250793457031</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>-12.214192390441895</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>-12.878236770629883</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>-13.719645500183105</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>-14.40874195098877</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>-14.836187362670898</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>-15.191197395324707</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>-15.314050674438477</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>-15.453940391540527</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>-15.540084838867188</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>-15.665303230285645</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>-15.976139068603516</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>-16.326528549194336</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>-16.568803787231445</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>-16.857915878295898</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>-17.024030685424805</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>-17.053213119506836</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>-16.614734649658203</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>-15.501371383666992</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>-13.73705005645752</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>-12.320948600769043</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>-11.547895431518555</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>-10.960291862487793</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
@@ -4818,208 +4803,202 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]ChartData!$E$3:$E$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>29.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>29.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>29.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>30.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>30.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>30.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>30.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>31.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>31.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>31.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>31.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="31"/>
+              <c:pt idx="0">
+                <c:v>26</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>26.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>26.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>26.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>26.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>27.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>27.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>27.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>27.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>28</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>28.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>28.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>28.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>28.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>29</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>29.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>29.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>29.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>29.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>30.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>30.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>30.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>30.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>31</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>31.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>31.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>31.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>31.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>32</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]ChartData!$F$3:$F$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>-12.90718936920166</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-13.316024780273438</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-13.803609848022461</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-14.364500999450684</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-15.028201103210449</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-15.639732360839844</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-16.214553833007813</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-16.79481315612793</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-17.492351531982422</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-18.008213043212891</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-18.570440292358398</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-19.087162017822266</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-19.614568710327148</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-20.202125549316406</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-20.920085906982422</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-21.783828735351563</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-22.778238296508789</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-23.74488639831543</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-24.593559265136719</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-25.459318161010742</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-26.408567428588867</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-27.253055572509766</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-28.197761535644531</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-28.994607925415039</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-29.599946975708008</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-30.006322860717773</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-29.542575836181641</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-26.559957504272461</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-24.400094985961914</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-20.390869140625</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-16.993757247924805</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="31"/>
+              <c:pt idx="0">
+                <c:v>-12.90718936920166</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>-13.316024780273438</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>-13.803609848022461</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>-14.364500999450684</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>-15.028201103210449</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>-15.639732360839844</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>-16.214553833007813</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>-16.79481315612793</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>-17.492351531982422</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>-18.008213043212891</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>-18.570440292358398</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>-19.087162017822266</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>-19.614568710327148</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>-20.202125549316406</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>-20.920085906982422</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>-21.783828735351563</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>-22.778238296508789</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>-23.74488639831543</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>-24.593559265136719</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>-25.459318161010742</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>-26.408567428588867</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>-27.253055572509766</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>-28.197761535644531</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>-28.994607925415039</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>-29.599946975708008</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>-30.006322860717773</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>-29.542575836181641</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>-26.559957504272461</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>-24.400094985961914</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>-20.390869140625</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>-16.993757247924805</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
@@ -5059,208 +5038,202 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]ChartData!$G$3:$G$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>30.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>30.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>30.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>30.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>31.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>31.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>31.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>31.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>32.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>32.400001525878906</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>32.599998474121094</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>32.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>33</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="31"/>
+              <c:pt idx="0">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>27.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>27.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>27.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>27.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>28</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>28.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>28.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>28.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>28.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>29</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>29.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>29.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>29.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>29.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>30.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>30.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>30.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>30.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>31</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>31.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>31.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>31.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>31.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>32</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>32.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>32.400001525878906</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>32.599998474121094</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>32.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>33</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]ChartData!$H$3:$H$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>-18.169242858886719</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-18.8494873046875</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-19.358917236328125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-19.956974029541016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-20.419567108154297</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-20.879339218139648</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-21.303844451904297</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-21.951887130737305</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-22.697566986083984</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-23.511421203613281</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-24.285074234008789</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-25.558658599853516</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-26.727052688598633</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-28.175506591796875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-29.454330444335938</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-30.518320083618164</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-31.578174591064453</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-32.797470092773438</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-33.840602874755859</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-35.103244781494141</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-36.532924652099609</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-37.9219970703125</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-39.292545318603516</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-40.791900634765625</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-41.930263519287109</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-42.603271484375</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-43.474605560302734</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-33.502052307128906</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-29.865949630737305</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-25.573381423950195</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-22.797933578491211</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="31"/>
+              <c:pt idx="0">
+                <c:v>-18.169242858886719</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>-18.8494873046875</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>-19.358917236328125</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>-19.956974029541016</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>-20.419567108154297</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>-20.879339218139648</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>-21.303844451904297</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>-21.951887130737305</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>-22.697566986083984</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>-23.511421203613281</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>-24.285074234008789</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>-25.558658599853516</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>-26.727052688598633</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>-28.175506591796875</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>-29.454330444335938</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>-30.518320083618164</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>-31.578174591064453</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>-32.797470092773438</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>-33.840602874755859</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>-35.103244781494141</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>-36.532924652099609</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>-37.9219970703125</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>-39.292545318603516</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>-40.791900634765625</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>-41.930263519287109</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>-42.603271484375</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>-43.474605560302734</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>-33.502052307128906</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>-29.865949630737305</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>-25.573381423950195</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>-22.797933578491211</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
@@ -5300,208 +5273,202 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]ChartData!$I$3:$I$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29.166666030883789</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29.333333969116211</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29.666666030883789</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29.833333969116211</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30.166666030883789</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30.333333969116211</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30.666666030883789</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>30.833333969116211</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>31.166666030883789</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>31.333333969116211</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>31.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>31.666666030883789</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>31.833333969116211</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>32.166667938232422</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>32.333332061767578</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>32.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32.666667938232422</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>32.833332061767578</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>33.166667938232422</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>33.333332061767578</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>33.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>33.666667938232422</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>33.833332061767578</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>34</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="31"/>
+              <c:pt idx="0">
+                <c:v>29</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>29.166666030883789</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>29.333333969116211</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>29.5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>29.666666030883789</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>29.833333969116211</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>30.166666030883789</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>30.333333969116211</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>30.5</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>30.666666030883789</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>30.833333969116211</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>31</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>31.166666030883789</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>31.333333969116211</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>31.5</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>31.666666030883789</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>31.833333969116211</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>32</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>32.166667938232422</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>32.333332061767578</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>32.5</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>32.666667938232422</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>32.833332061767578</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>33</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>33.166667938232422</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>33.333332061767578</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>33.5</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>33.666667938232422</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>33.833332061767578</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>34</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]ChartData!$J$3:$J$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>-28.119304656982422</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-28.951499938964844</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-29.807823181152344</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-30.647661209106445</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-31.424270629882813</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-32.189929962158203</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-33.019004821777344</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-33.935802459716797</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-34.951892852783203</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-35.985191345214844</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-37.336406707763672</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-38.669910430908203</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-40.194446563720703</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-41.535057067871094</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-43.365020751953125</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-45.109661102294922</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-46.780529022216797</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-48.499267578125</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-50.267555236816406</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-51.817012786865234</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-53.381465911865234</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-54.787235260009766</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-55.818767547607422</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-56.645519256591797</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-57.465145111083984</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-60.007781982421875</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-37.085994720458984</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-27.938209533691406</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-26.651756286621094</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-26.673139572143555</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-28.031486511230469</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="31"/>
+              <c:pt idx="0">
+                <c:v>-28.119304656982422</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>-28.951499938964844</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>-29.807823181152344</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>-30.647661209106445</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>-31.424270629882813</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>-32.189929962158203</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>-33.019004821777344</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>-33.935802459716797</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>-34.951892852783203</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>-35.985191345214844</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>-37.336406707763672</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>-38.669910430908203</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>-40.194446563720703</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>-41.535057067871094</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>-43.365020751953125</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>-45.109661102294922</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>-46.780529022216797</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>-48.499267578125</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>-50.267555236816406</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>-51.817012786865234</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>-53.381465911865234</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>-54.787235260009766</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>-55.818767547607422</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>-56.645519256591797</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>-57.465145111083984</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>-60.007781982421875</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>-37.085994720458984</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>-27.938209533691406</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>-26.651756286621094</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>-26.673139572143555</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>-28.031486511230469</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
@@ -5992,238 +5959,232 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]ChartData!$A$42:$A$77</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>26.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>26.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>26.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>27.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>28.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>28.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>28.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>28.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>29.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>30.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>30.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>30.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>30.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>31</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="36"/>
+              <c:pt idx="0">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>24.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>24.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>24.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>24.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>25.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>25.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>25.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>25.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>26</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>26.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>26.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>26.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>26.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>27.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>27.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>27.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>27.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>28</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>28.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>28.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>28.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>28.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>29</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>29.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>29.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>29.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>29.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>30.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>30.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>30.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>30.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>31</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]ChartData!$B$42:$B$77</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>0.46500074863433838</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.81355535984039307</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.97336697578430176</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0787351131439209</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.94178706407546997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.71014899015426636</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.46841427683830261</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.229460209608078</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.4245610237121582E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.13164454698562622</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.30739346146583557</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.43980365991592407</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.53793632984161377</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.64381444454193115</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.74001091718673706</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.83623051643371582</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.94761037826538086</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-1.0140016078948975</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-1.0512732267379761</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-1.0771911144256592</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-1.1028810739517212</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-1.1470880508422852</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-1.1832976341247559</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-1.2485735416412354</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-1.2790981531143188</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-1.269817590713501</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-1.2392308712005615</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-1.2320655584335327</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-1.2341903448104858</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-1.2788169384002686</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-1.3278870582580566</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-1.3947110176086426</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-1.4585775136947632</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-1.5006942749023438</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-1.5549843311309814</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-1.6156613826751709</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="36"/>
+              <c:pt idx="0">
+                <c:v>0.46500074863433838</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0.81355535984039307</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0.97336697578430176</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>1.0787351131439209</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>0.94178706407546997</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>0.71014899015426636</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>0.46841427683830261</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>0.229460209608078</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>3.4245610237121582E-2</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>-0.13164454698562622</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>-0.30739346146583557</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>-0.43980365991592407</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>-0.53793632984161377</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>-0.64381444454193115</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>-0.74001091718673706</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>-0.83623051643371582</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>-0.94761037826538086</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>-1.0140016078948975</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>-1.0512732267379761</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>-1.0771911144256592</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>-1.1028810739517212</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>-1.1470880508422852</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>-1.1832976341247559</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>-1.2485735416412354</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>-1.2790981531143188</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>-1.269817590713501</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>-1.2392308712005615</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>-1.2320655584335327</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>-1.2341903448104858</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>-1.2788169384002686</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>-1.3278870582580566</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>-1.3947110176086426</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>-1.4585775136947632</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>-1.5006942749023438</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>-1.5549843311309814</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>-1.6156613826751709</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
@@ -6263,238 +6224,232 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]ChartData!$C$42:$C$77</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>26.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>26.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>26.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>27.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>28.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>28.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>28.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>28.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>29.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>30.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>30.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>30.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>30.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>31</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="36"/>
+              <c:pt idx="0">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>24.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>24.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>24.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>24.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>25.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>25.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>25.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>25.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>26</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>26.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>26.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>26.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>26.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>27.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>27.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>27.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>27.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>28</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>28.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>28.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>28.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>28.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>29</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>29.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>29.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>29.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>29.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>30.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>30.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>30.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>30.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>31</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]ChartData!$D$42:$D$77</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>1.8317927122116089</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2940785884857178</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7555899620056152</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.3966636657714844</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.2234983444213867</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.9639973640441895</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.2978711128234863</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.5824794769287109</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.5448403358459473</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.3498435020446777</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.1655669212341309</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.8718457221984863</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.6701545715332031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.4206113815307617</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.0885767936706543</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.7223250865936279</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.0612850189208984</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.5093460083007813</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.9708997011184692</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.4095746278762817</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.91519743204116821</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.38190582394599915</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-9.2401161789894104E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.52535402774810791</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-1.0449081659317017</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-1.7350887060165405</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-2.573319673538208</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-3.3187341690063477</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-4.173738956451416</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-5.3679533004760742</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-6.9554872512817383</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-8.6936807632446289</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-10.181264877319336</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-10.907645225524902</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-11.239775657653809</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-11.53823184967041</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="36"/>
+              <c:pt idx="0">
+                <c:v>1.8317927122116089</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2.2940785884857178</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2.7555899620056152</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3.3966636657714844</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>4.2234983444213867</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>4.9639973640441895</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>5.2978711128234863</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>5.5824794769287109</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>5.5448403358459473</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>5.3498435020446777</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>5.1655669212341309</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>4.8718457221984863</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>4.6701545715332031</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>4.4206113815307617</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>4.0885767936706543</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>3.7223250865936279</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>3.0612850189208984</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2.5093460083007813</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>1.9708997011184692</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>1.4095746278762817</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>0.91519743204116821</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>0.38190582394599915</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>-9.2401161789894104E-2</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>-0.52535402774810791</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>-1.0449081659317017</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>-1.7350887060165405</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>-2.573319673538208</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>-3.3187341690063477</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>-4.173738956451416</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>-5.3679533004760742</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>-6.9554872512817383</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>-8.6936807632446289</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>-10.181264877319336</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>-10.907645225524902</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>-11.239775657653809</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>-11.53823184967041</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
@@ -6534,208 +6489,202 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]ChartData!$E$42:$E$72</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>29.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>29.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>29.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>30.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>30.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>30.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>30.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>31.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>31.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>31.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>31.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="31"/>
+              <c:pt idx="0">
+                <c:v>26</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>26.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>26.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>26.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>26.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>27.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>27.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>27.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>27.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>28</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>28.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>28.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>28.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>28.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>29</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>29.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>29.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>29.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>29.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>30.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>30.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>30.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>30.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>31</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>31.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>31.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>31.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>31.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>32</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]ChartData!$F$42:$F$72</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>7.2091703414916992</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.2448315620422363</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.412602424621582</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.5319766998291016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.5534157752990723</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.4361982345581055</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.4676952362060547</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.5491795539855957</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.5117483139038086</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.4643654823303223</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.3450584411621094</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.2787423133850098</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.2180542945861816</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.0913829803466797</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.9398550987243652</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.7100448608398438</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.2871532440185547</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.4466133117675781</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.5842175483703613</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.7740323543548584</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.0451080799102783</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.0704600811004639</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.82232415676116943</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.66770446300506592</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-2.5874719619750977</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-4.8142518997192383</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-8.2064189910888672</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-12.936838150024414</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-15.198762893676758</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-17.561029434204102</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-18.562448501586914</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="31"/>
+              <c:pt idx="0">
+                <c:v>7.2091703414916992</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>7.2448315620422363</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>7.412602424621582</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>7.5319766998291016</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>7.5534157752990723</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7.4361982345581055</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>7.4676952362060547</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>7.5491795539855957</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>7.5117483139038086</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>7.4643654823303223</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>7.3450584411621094</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>7.2787423133850098</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>7.2180542945861816</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>7.0913829803466797</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>6.9398550987243652</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>6.7100448608398438</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>6.2871532440185547</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>5.4466133117675781</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>4.5842175483703613</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>3.7740323543548584</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>3.0451080799102783</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2.0704600811004639</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>0.82232415676116943</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>-0.66770446300506592</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>-2.5874719619750977</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>-4.8142518997192383</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>-8.2064189910888672</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>-12.936838150024414</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>-15.198762893676758</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>-17.561029434204102</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>-18.562448501586914</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
@@ -6775,208 +6724,202 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]ChartData!$G$42:$G$72</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>30.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>30.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>30.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>30.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>31.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>31.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>31.600000381469727</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>31.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>32.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>32.400001525878906</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>32.599998474121094</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>32.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>33</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="31"/>
+              <c:pt idx="0">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>27.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>27.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>27.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>27.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>28</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>28.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>28.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>28.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>28.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>29</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>29.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>29.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>29.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>29.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>30.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>30.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>30.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>30.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>31</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>31.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>31.399999618530273</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>31.600000381469727</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>31.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>32</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>32.200000762939453</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>32.400001525878906</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>32.599998474121094</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>32.799999237060547</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>33</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]ChartData!$H$42:$H$72</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>9.8894872665405273</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.7578449249267578</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.9056224822998047</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.024411201477051</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.005081176757813</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.341358184814453</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.590681076049805</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.95658016204834</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.913241386413574</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.31385612487793</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.674688339233398</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.319416046142578</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11.004990577697754</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.386530876159668</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.5895051956176758</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.1523056030273438</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.5345478057861328</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.1248388290405273</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.7278027534484863</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.146026611328125</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.9294047355651855</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.7869172096252441</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.9890701770782471</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.7317354679107666</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-1.2816739082336426</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-4.3862204551696777</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-6.5412192344665527</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-19.373434066772461</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-21.387842178344727</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-22.379287719726563</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-22.619340896606445</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="31"/>
+              <c:pt idx="0">
+                <c:v>9.8894872665405273</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>9.7578449249267578</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>9.9056224822998047</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>10.024411201477051</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>10.005081176757813</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>10.341358184814453</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>10.590681076049805</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>10.95658016204834</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>10.913241386413574</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>11.31385612487793</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>11.674688339233398</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>11.319416046142578</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>11.004990577697754</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>10.386530876159668</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>9.5895051956176758</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>9.1523056030273438</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>8.5345478057861328</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>8.1248388290405273</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>7.7278027534484863</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>7.146026611328125</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>6.9294047355651855</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>5.7869172096252441</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>3.9890701770782471</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>1.7317354679107666</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>-1.2816739082336426</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>-4.3862204551696777</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>-6.5412192344665527</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>-19.373434066772461</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>-21.387842178344727</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>-22.379287719726563</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>-22.619340896606445</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
@@ -7016,208 +6959,202 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]ChartData!$I$42:$I$72</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29.166666030883789</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29.333333969116211</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29.666666030883789</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29.833333969116211</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30.166666030883789</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30.333333969116211</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30.666666030883789</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>30.833333969116211</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>31.166666030883789</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>31.333333969116211</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>31.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>31.666666030883789</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>31.833333969116211</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>32.166667938232422</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>32.333332061767578</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>32.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>32.666667938232422</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>32.833332061767578</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>33.166667938232422</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>33.333332061767578</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>33.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>33.666667938232422</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>33.833332061767578</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>34</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="31"/>
+              <c:pt idx="0">
+                <c:v>29</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>29.166666030883789</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>29.333333969116211</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>29.5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>29.666666030883789</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>29.833333969116211</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>30.166666030883789</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>30.333333969116211</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>30.5</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>30.666666030883789</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>30.833333969116211</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>31</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>31.166666030883789</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>31.333333969116211</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>31.5</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>31.666666030883789</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>31.833333969116211</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>32</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>32.166667938232422</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>32.333332061767578</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>32.5</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>32.666667938232422</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>32.833332061767578</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>33</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>33.166667938232422</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>33.333332061767578</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>33.5</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>33.666667938232422</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>33.833332061767578</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>34</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]ChartData!$J$42:$J$72</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>14.963131904602051</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.705248832702637</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.40986442565918</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.258179664611816</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.208844184875488</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.414031982421875</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.59996223449707</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.879184722900391</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.306622505187988</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15.47481632232666</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.502839088439941</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.444490432739258</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.407357215881348</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15.360548973083496</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14.007079124450684</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13.220868110656738</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11.858275413513184</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10.392840385437012</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.8656549453735352</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.2391767501831055</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.9266748428344727</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.3868293762207031</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.48789885640144348</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-4.4000701904296875</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-7.3509073257446289</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-7.6319456100463867</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-27.978382110595703</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-28.484363555908203</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-27.666786193847656</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-26.959087371826172</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-27.329435348510742</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="31"/>
+              <c:pt idx="0">
+                <c:v>14.963131904602051</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>14.705248832702637</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>14.40986442565918</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>14.258179664611816</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>14.208844184875488</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>14.414031982421875</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>14.59996223449707</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>14.879184722900391</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>15.306622505187988</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>15.47481632232666</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>15.502839088439941</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>15.444490432739258</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>15.407357215881348</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>15.360548973083496</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>14.007079124450684</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>13.220868110656738</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>11.858275413513184</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>10.392840385437012</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>8.8656549453735352</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>7.2391767501831055</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>4.9266748428344727</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2.3868293762207031</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>-0.48789885640144348</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>-4.4000701904296875</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>-7.3509073257446289</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>-7.6319456100463867</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>-27.978382110595703</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>-28.484363555908203</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>-27.666786193847656</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>-26.959087371826172</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>-27.329435348510742</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
@@ -7639,18 +7576,18 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>т.2.41</c:v>
+            <c:v>т. 19</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="square"/>
@@ -7659,76 +7596,77 @@
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:prstDash val="solid"/>
               </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numLit>
               <c:formatCode>General</c:formatCode>
-              <c:ptCount val="11"/>
+              <c:ptCount val="5"/>
               <c:pt idx="0">
-                <c:v>0.46273084037358009</c:v>
+                <c:v>2.6415289982285586</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>0.81390613504453624</c:v>
+                <c:v>15.499509071827053</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>1.3485197664011181</c:v>
+                <c:v>28.606022324831464</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>2.049872532139978</c:v>
+                <c:v>41.389244992400506</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>2.6244280292790854</c:v>
+                <c:v>55.330051024147664</c:v>
               </c:pt>
             </c:numLit>
           </c:xVal>
           <c:yVal>
             <c:numLit>
               <c:formatCode>General</c:formatCode>
-              <c:ptCount val="12"/>
+              <c:ptCount val="5"/>
               <c:pt idx="0">
-                <c:v>23.959999084469999</c:v>
+                <c:v>25.699999809265137</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>21.70000076294</c:v>
+                <c:v>28.300000190734863</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>19.79999923706</c:v>
+                <c:v>30.5</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>19</c:v>
+                <c:v>31.699999809265137</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>19.29999923706</c:v>
+                <c:v>32.583333969116211</c:v>
               </c:pt>
             </c:numLit>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B021-4C0F-B7EF-6C0E60C2E2F7}"/>
+              <c16:uniqueId val="{00000000-1467-463D-B137-84FC0048477E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>т.3.41</c:v>
+            <c:v>т. 29</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="square"/>
@@ -7737,60 +7675,61 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:prstDash val="solid"/>
               </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numLit>
               <c:formatCode>General</c:formatCode>
-              <c:ptCount val="15"/>
+              <c:ptCount val="5"/>
               <c:pt idx="0">
-                <c:v>0.59525770719765181</c:v>
+                <c:v>4.5759916697995742</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>1.1769258749197724</c:v>
+                <c:v>18.305699644433389</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>1.6776150339930829</c:v>
+                <c:v>33.156675439714761</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>2.4324036792887882</c:v>
+                <c:v>47.775492020803881</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>3.499731183192333</c:v>
+                <c:v>63.931899663883641</c:v>
               </c:pt>
             </c:numLit>
           </c:xVal>
           <c:yVal>
             <c:numLit>
               <c:formatCode>General</c:formatCode>
-              <c:ptCount val="14"/>
+              <c:ptCount val="5"/>
               <c:pt idx="0">
-                <c:v>23.959999084469999</c:v>
+                <c:v>25.5</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>21.5</c:v>
+                <c:v>28.5</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>19.79999923706</c:v>
+                <c:v>30.699999809265137</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>19.5</c:v>
+                <c:v>31.899999618530273</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>19.75</c:v>
+                <c:v>32.75</c:v>
               </c:pt>
             </c:numLit>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B021-4C0F-B7EF-6C0E60C2E2F7}"/>
+              <c16:uniqueId val="{00000001-1467-463D-B137-84FC0048477E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7847,14 +7786,13 @@
         <c:crossAx val="175814272"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="1"/>
+        <c:minorUnit val="10"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="175814272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="18"/>
+          <c:min val="24"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7912,10 +7850,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73838668461808965"/>
-          <c:y val="3.6578502208335445E-2"/>
+          <c:x val="0.74907472692051913"/>
+          <c:y val="0.64813395496012849"/>
           <c:w val="0.18169671914130775"/>
-          <c:h val="0.25964835242181494"/>
+          <c:h val="0.19707049115265843"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -13079,10 +13017,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="F(A)">
+        <xdr:cNvPr id="8" name="F(A)">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E76719-F709-4E51-9766-B7AE67E761CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A47FDF45-0249-4384-9181-1D6C4293CAA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13110,17 +13048,17 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Text Box 93">
+        <xdr:cNvPr id="9" name="Text Box 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44C3AECD-54A7-4CC8-A128-D35F8819BC1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A604C58E-8E0C-4200-9B60-107CA48C2E42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13130,8 +13068,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="23812" y="466725"/>
-          <a:ext cx="6072188" cy="514350"/>
+          <a:off x="23812" y="142875"/>
+          <a:ext cx="6067425" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13180,7 +13118,7 @@
               <a:ea typeface="Times New Roman"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Симметричное вращение элеронов.</a:t>
+            <a:t>Вращение левого закрылка</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -13216,120 +13154,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>Возбуждение с элеронов в т. Г, Г1. </a:t>
+            <a:t>Возбуждение *. </a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="TextBox 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E963B4-FFFC-4149-92EC-5E6DA2EA3667}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1590675" y="1704975"/>
-          <a:ext cx="666750" cy="209551"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="Times New Roman"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>F = </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="0" lang="ru-RU" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="Times New Roman"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>54 Н</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="0" lang="ru-RU" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -13725,2154 +13551,6 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="АЧХ"/>
-      <sheetName val="Форма"/>
-      <sheetName val="Вращение"/>
-      <sheetName val="f(A)"/>
-      <sheetName val="Markers"/>
-      <sheetName val="ChartData"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="3">
-          <cell r="A3">
-            <v>24</v>
-          </cell>
-          <cell r="B3">
-            <v>-0.81814795732498169</v>
-          </cell>
-          <cell r="C3">
-            <v>24</v>
-          </cell>
-          <cell r="D3">
-            <v>-5.8272643089294434</v>
-          </cell>
-          <cell r="E3">
-            <v>26</v>
-          </cell>
-          <cell r="F3">
-            <v>-12.90718936920166</v>
-          </cell>
-          <cell r="G3">
-            <v>27</v>
-          </cell>
-          <cell r="H3">
-            <v>-18.169242858886719</v>
-          </cell>
-          <cell r="I3">
-            <v>29</v>
-          </cell>
-          <cell r="J3">
-            <v>-28.119304656982422</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>24.200000762939453</v>
-          </cell>
-          <cell r="B4">
-            <v>-0.82704412937164307</v>
-          </cell>
-          <cell r="C4">
-            <v>24.200000762939453</v>
-          </cell>
-          <cell r="D4">
-            <v>-6.0581860542297363</v>
-          </cell>
-          <cell r="E4">
-            <v>26.200000762939453</v>
-          </cell>
-          <cell r="F4">
-            <v>-13.316024780273438</v>
-          </cell>
-          <cell r="G4">
-            <v>27.200000762939453</v>
-          </cell>
-          <cell r="H4">
-            <v>-18.8494873046875</v>
-          </cell>
-          <cell r="I4">
-            <v>29.166666030883789</v>
-          </cell>
-          <cell r="J4">
-            <v>-28.951499938964844</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>24.399999618530273</v>
-          </cell>
-          <cell r="B5">
-            <v>-1.1748884916305542</v>
-          </cell>
-          <cell r="C5">
-            <v>24.399999618530273</v>
-          </cell>
-          <cell r="D5">
-            <v>-6.314084529876709</v>
-          </cell>
-          <cell r="E5">
-            <v>26.399999618530273</v>
-          </cell>
-          <cell r="F5">
-            <v>-13.803609848022461</v>
-          </cell>
-          <cell r="G5">
-            <v>27.399999618530273</v>
-          </cell>
-          <cell r="H5">
-            <v>-19.358917236328125</v>
-          </cell>
-          <cell r="I5">
-            <v>29.333333969116211</v>
-          </cell>
-          <cell r="J5">
-            <v>-29.807823181152344</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>24.600000381469727</v>
-          </cell>
-          <cell r="B6">
-            <v>-1.6394596099853516</v>
-          </cell>
-          <cell r="C6">
-            <v>24.600000381469727</v>
-          </cell>
-          <cell r="D6">
-            <v>-6.624946117401123</v>
-          </cell>
-          <cell r="E6">
-            <v>26.600000381469727</v>
-          </cell>
-          <cell r="F6">
-            <v>-14.364500999450684</v>
-          </cell>
-          <cell r="G6">
-            <v>27.600000381469727</v>
-          </cell>
-          <cell r="H6">
-            <v>-19.956974029541016</v>
-          </cell>
-          <cell r="I6">
-            <v>29.5</v>
-          </cell>
-          <cell r="J6">
-            <v>-30.647661209106445</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>24.799999237060547</v>
-          </cell>
-          <cell r="B7">
-            <v>-2.0776593685150146</v>
-          </cell>
-          <cell r="C7">
-            <v>24.799999237060547</v>
-          </cell>
-          <cell r="D7">
-            <v>-7.1292572021484375</v>
-          </cell>
-          <cell r="E7">
-            <v>26.799999237060547</v>
-          </cell>
-          <cell r="F7">
-            <v>-15.028201103210449</v>
-          </cell>
-          <cell r="G7">
-            <v>27.799999237060547</v>
-          </cell>
-          <cell r="H7">
-            <v>-20.419567108154297</v>
-          </cell>
-          <cell r="I7">
-            <v>29.666666030883789</v>
-          </cell>
-          <cell r="J7">
-            <v>-31.424270629882813</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>25</v>
-          </cell>
-          <cell r="B8">
-            <v>-2.3443863391876221</v>
-          </cell>
-          <cell r="C8">
-            <v>25</v>
-          </cell>
-          <cell r="D8">
-            <v>-7.7240300178527832</v>
-          </cell>
-          <cell r="E8">
-            <v>27</v>
-          </cell>
-          <cell r="F8">
-            <v>-15.639732360839844</v>
-          </cell>
-          <cell r="G8">
-            <v>28</v>
-          </cell>
-          <cell r="H8">
-            <v>-20.879339218139648</v>
-          </cell>
-          <cell r="I8">
-            <v>29.833333969116211</v>
-          </cell>
-          <cell r="J8">
-            <v>-32.189929962158203</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>25.200000762939453</v>
-          </cell>
-          <cell r="B9">
-            <v>-2.5296721458435059</v>
-          </cell>
-          <cell r="C9">
-            <v>25.200000762939453</v>
-          </cell>
-          <cell r="D9">
-            <v>-8.3826408386230469</v>
-          </cell>
-          <cell r="E9">
-            <v>27.200000762939453</v>
-          </cell>
-          <cell r="F9">
-            <v>-16.214553833007813</v>
-          </cell>
-          <cell r="G9">
-            <v>28.200000762939453</v>
-          </cell>
-          <cell r="H9">
-            <v>-21.303844451904297</v>
-          </cell>
-          <cell r="I9">
-            <v>30</v>
-          </cell>
-          <cell r="J9">
-            <v>-33.019004821777344</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>25.399999618530273</v>
-          </cell>
-          <cell r="B10">
-            <v>-2.6214101314544678</v>
-          </cell>
-          <cell r="C10">
-            <v>25.399999618530273</v>
-          </cell>
-          <cell r="D10">
-            <v>-8.9292697906494141</v>
-          </cell>
-          <cell r="E10">
-            <v>27.399999618530273</v>
-          </cell>
-          <cell r="F10">
-            <v>-16.79481315612793</v>
-          </cell>
-          <cell r="G10">
-            <v>28.399999618530273</v>
-          </cell>
-          <cell r="H10">
-            <v>-21.951887130737305</v>
-          </cell>
-          <cell r="I10">
-            <v>30.166666030883789</v>
-          </cell>
-          <cell r="J10">
-            <v>-33.935802459716797</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>25.600000381469727</v>
-          </cell>
-          <cell r="B11">
-            <v>-2.6309487819671631</v>
-          </cell>
-          <cell r="C11">
-            <v>25.600000381469727</v>
-          </cell>
-          <cell r="D11">
-            <v>-9.5362577438354492</v>
-          </cell>
-          <cell r="E11">
-            <v>27.600000381469727</v>
-          </cell>
-          <cell r="F11">
-            <v>-17.492351531982422</v>
-          </cell>
-          <cell r="G11">
-            <v>28.600000381469727</v>
-          </cell>
-          <cell r="H11">
-            <v>-22.697566986083984</v>
-          </cell>
-          <cell r="I11">
-            <v>30.333333969116211</v>
-          </cell>
-          <cell r="J11">
-            <v>-34.951892852783203</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>25.799999237060547</v>
-          </cell>
-          <cell r="B12">
-            <v>-2.6486167907714844</v>
-          </cell>
-          <cell r="C12">
-            <v>25.799999237060547</v>
-          </cell>
-          <cell r="D12">
-            <v>-9.9107036590576172</v>
-          </cell>
-          <cell r="E12">
-            <v>27.799999237060547</v>
-          </cell>
-          <cell r="F12">
-            <v>-18.008213043212891</v>
-          </cell>
-          <cell r="G12">
-            <v>28.799999237060547</v>
-          </cell>
-          <cell r="H12">
-            <v>-23.511421203613281</v>
-          </cell>
-          <cell r="I12">
-            <v>30.5</v>
-          </cell>
-          <cell r="J12">
-            <v>-35.985191345214844</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>26</v>
-          </cell>
-          <cell r="B13">
-            <v>-2.628143310546875</v>
-          </cell>
-          <cell r="C13">
-            <v>26</v>
-          </cell>
-          <cell r="D13">
-            <v>-10.326160430908203</v>
-          </cell>
-          <cell r="E13">
-            <v>28</v>
-          </cell>
-          <cell r="F13">
-            <v>-18.570440292358398</v>
-          </cell>
-          <cell r="G13">
-            <v>29</v>
-          </cell>
-          <cell r="H13">
-            <v>-24.285074234008789</v>
-          </cell>
-          <cell r="I13">
-            <v>30.666666030883789</v>
-          </cell>
-          <cell r="J13">
-            <v>-37.336406707763672</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>26.200000762939453</v>
-          </cell>
-          <cell r="B14">
-            <v>-2.5876333713531494</v>
-          </cell>
-          <cell r="C14">
-            <v>26.200000762939453</v>
-          </cell>
-          <cell r="D14">
-            <v>-10.756730079650879</v>
-          </cell>
-          <cell r="E14">
-            <v>28.200000762939453</v>
-          </cell>
-          <cell r="F14">
-            <v>-19.087162017822266</v>
-          </cell>
-          <cell r="G14">
-            <v>29.200000762939453</v>
-          </cell>
-          <cell r="H14">
-            <v>-25.558658599853516</v>
-          </cell>
-          <cell r="I14">
-            <v>30.833333969116211</v>
-          </cell>
-          <cell r="J14">
-            <v>-38.669910430908203</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>26.399999618530273</v>
-          </cell>
-          <cell r="B15">
-            <v>-2.5395078659057617</v>
-          </cell>
-          <cell r="C15">
-            <v>26.399999618530273</v>
-          </cell>
-          <cell r="D15">
-            <v>-11.270539283752441</v>
-          </cell>
-          <cell r="E15">
-            <v>28.399999618530273</v>
-          </cell>
-          <cell r="F15">
-            <v>-19.614568710327148</v>
-          </cell>
-          <cell r="G15">
-            <v>29.399999618530273</v>
-          </cell>
-          <cell r="H15">
-            <v>-26.727052688598633</v>
-          </cell>
-          <cell r="I15">
-            <v>31</v>
-          </cell>
-          <cell r="J15">
-            <v>-40.194446563720703</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>26.600000381469727</v>
-          </cell>
-          <cell r="B16">
-            <v>-2.5022051334381104</v>
-          </cell>
-          <cell r="C16">
-            <v>26.600000381469727</v>
-          </cell>
-          <cell r="D16">
-            <v>-11.724250793457031</v>
-          </cell>
-          <cell r="E16">
-            <v>28.600000381469727</v>
-          </cell>
-          <cell r="F16">
-            <v>-20.202125549316406</v>
-          </cell>
-          <cell r="G16">
-            <v>29.600000381469727</v>
-          </cell>
-          <cell r="H16">
-            <v>-28.175506591796875</v>
-          </cell>
-          <cell r="I16">
-            <v>31.166666030883789</v>
-          </cell>
-          <cell r="J16">
-            <v>-41.535057067871094</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>26.799999237060547</v>
-          </cell>
-          <cell r="B17">
-            <v>-2.4825830459594727</v>
-          </cell>
-          <cell r="C17">
-            <v>26.799999237060547</v>
-          </cell>
-          <cell r="D17">
-            <v>-12.214192390441895</v>
-          </cell>
-          <cell r="E17">
-            <v>28.799999237060547</v>
-          </cell>
-          <cell r="F17">
-            <v>-20.920085906982422</v>
-          </cell>
-          <cell r="G17">
-            <v>29.799999237060547</v>
-          </cell>
-          <cell r="H17">
-            <v>-29.454330444335938</v>
-          </cell>
-          <cell r="I17">
-            <v>31.333333969116211</v>
-          </cell>
-          <cell r="J17">
-            <v>-43.365020751953125</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>27</v>
-          </cell>
-          <cell r="B18">
-            <v>-2.4300551414489746</v>
-          </cell>
-          <cell r="C18">
-            <v>27</v>
-          </cell>
-          <cell r="D18">
-            <v>-12.878236770629883</v>
-          </cell>
-          <cell r="E18">
-            <v>29</v>
-          </cell>
-          <cell r="F18">
-            <v>-21.783828735351563</v>
-          </cell>
-          <cell r="G18">
-            <v>30</v>
-          </cell>
-          <cell r="H18">
-            <v>-30.518320083618164</v>
-          </cell>
-          <cell r="I18">
-            <v>31.5</v>
-          </cell>
-          <cell r="J18">
-            <v>-45.109661102294922</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>27.200000762939453</v>
-          </cell>
-          <cell r="B19">
-            <v>-2.3701050281524658</v>
-          </cell>
-          <cell r="C19">
-            <v>27.200000762939453</v>
-          </cell>
-          <cell r="D19">
-            <v>-13.719645500183105</v>
-          </cell>
-          <cell r="E19">
-            <v>29.200000762939453</v>
-          </cell>
-          <cell r="F19">
-            <v>-22.778238296508789</v>
-          </cell>
-          <cell r="G19">
-            <v>30.200000762939453</v>
-          </cell>
-          <cell r="H19">
-            <v>-31.578174591064453</v>
-          </cell>
-          <cell r="I19">
-            <v>31.666666030883789</v>
-          </cell>
-          <cell r="J19">
-            <v>-46.780529022216797</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>27.399999618530273</v>
-          </cell>
-          <cell r="B20">
-            <v>-2.2817668914794922</v>
-          </cell>
-          <cell r="C20">
-            <v>27.399999618530273</v>
-          </cell>
-          <cell r="D20">
-            <v>-14.40874195098877</v>
-          </cell>
-          <cell r="E20">
-            <v>29.399999618530273</v>
-          </cell>
-          <cell r="F20">
-            <v>-23.74488639831543</v>
-          </cell>
-          <cell r="G20">
-            <v>30.399999618530273</v>
-          </cell>
-          <cell r="H20">
-            <v>-32.797470092773438</v>
-          </cell>
-          <cell r="I20">
-            <v>31.833333969116211</v>
-          </cell>
-          <cell r="J20">
-            <v>-48.499267578125</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>27.600000381469727</v>
-          </cell>
-          <cell r="B21">
-            <v>-2.1970741748809814</v>
-          </cell>
-          <cell r="C21">
-            <v>27.600000381469727</v>
-          </cell>
-          <cell r="D21">
-            <v>-14.836187362670898</v>
-          </cell>
-          <cell r="E21">
-            <v>29.600000381469727</v>
-          </cell>
-          <cell r="F21">
-            <v>-24.593559265136719</v>
-          </cell>
-          <cell r="G21">
-            <v>30.600000381469727</v>
-          </cell>
-          <cell r="H21">
-            <v>-33.840602874755859</v>
-          </cell>
-          <cell r="I21">
-            <v>32</v>
-          </cell>
-          <cell r="J21">
-            <v>-50.267555236816406</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>27.799999237060547</v>
-          </cell>
-          <cell r="B22">
-            <v>-2.1466248035430908</v>
-          </cell>
-          <cell r="C22">
-            <v>27.799999237060547</v>
-          </cell>
-          <cell r="D22">
-            <v>-15.191197395324707</v>
-          </cell>
-          <cell r="E22">
-            <v>29.799999237060547</v>
-          </cell>
-          <cell r="F22">
-            <v>-25.459318161010742</v>
-          </cell>
-          <cell r="G22">
-            <v>30.799999237060547</v>
-          </cell>
-          <cell r="H22">
-            <v>-35.103244781494141</v>
-          </cell>
-          <cell r="I22">
-            <v>32.166667938232422</v>
-          </cell>
-          <cell r="J22">
-            <v>-51.817012786865234</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>28</v>
-          </cell>
-          <cell r="B23">
-            <v>-2.0989453792572021</v>
-          </cell>
-          <cell r="C23">
-            <v>28</v>
-          </cell>
-          <cell r="D23">
-            <v>-15.314050674438477</v>
-          </cell>
-          <cell r="E23">
-            <v>30</v>
-          </cell>
-          <cell r="F23">
-            <v>-26.408567428588867</v>
-          </cell>
-          <cell r="G23">
-            <v>31</v>
-          </cell>
-          <cell r="H23">
-            <v>-36.532924652099609</v>
-          </cell>
-          <cell r="I23">
-            <v>32.333332061767578</v>
-          </cell>
-          <cell r="J23">
-            <v>-53.381465911865234</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>28.200000762939453</v>
-          </cell>
-          <cell r="B24">
-            <v>-2.0648272037506104</v>
-          </cell>
-          <cell r="C24">
-            <v>28.200000762939453</v>
-          </cell>
-          <cell r="D24">
-            <v>-15.453940391540527</v>
-          </cell>
-          <cell r="E24">
-            <v>30.200000762939453</v>
-          </cell>
-          <cell r="F24">
-            <v>-27.253055572509766</v>
-          </cell>
-          <cell r="G24">
-            <v>31.200000762939453</v>
-          </cell>
-          <cell r="H24">
-            <v>-37.9219970703125</v>
-          </cell>
-          <cell r="I24">
-            <v>32.5</v>
-          </cell>
-          <cell r="J24">
-            <v>-54.787235260009766</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>28.399999618530273</v>
-          </cell>
-          <cell r="B25">
-            <v>-2.016094446182251</v>
-          </cell>
-          <cell r="C25">
-            <v>28.399999618530273</v>
-          </cell>
-          <cell r="D25">
-            <v>-15.540084838867188</v>
-          </cell>
-          <cell r="E25">
-            <v>30.399999618530273</v>
-          </cell>
-          <cell r="F25">
-            <v>-28.197761535644531</v>
-          </cell>
-          <cell r="G25">
-            <v>31.399999618530273</v>
-          </cell>
-          <cell r="H25">
-            <v>-39.292545318603516</v>
-          </cell>
-          <cell r="I25">
-            <v>32.666667938232422</v>
-          </cell>
-          <cell r="J25">
-            <v>-55.818767547607422</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>28.600000381469727</v>
-          </cell>
-          <cell r="B26">
-            <v>-1.9886789321899414</v>
-          </cell>
-          <cell r="C26">
-            <v>28.600000381469727</v>
-          </cell>
-          <cell r="D26">
-            <v>-15.665303230285645</v>
-          </cell>
-          <cell r="E26">
-            <v>30.600000381469727</v>
-          </cell>
-          <cell r="F26">
-            <v>-28.994607925415039</v>
-          </cell>
-          <cell r="G26">
-            <v>31.600000381469727</v>
-          </cell>
-          <cell r="H26">
-            <v>-40.791900634765625</v>
-          </cell>
-          <cell r="I26">
-            <v>32.833332061767578</v>
-          </cell>
-          <cell r="J26">
-            <v>-56.645519256591797</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>28.799999237060547</v>
-          </cell>
-          <cell r="B27">
-            <v>-1.8991826772689819</v>
-          </cell>
-          <cell r="C27">
-            <v>28.799999237060547</v>
-          </cell>
-          <cell r="D27">
-            <v>-15.976139068603516</v>
-          </cell>
-          <cell r="E27">
-            <v>30.799999237060547</v>
-          </cell>
-          <cell r="F27">
-            <v>-29.599946975708008</v>
-          </cell>
-          <cell r="G27">
-            <v>31.799999237060547</v>
-          </cell>
-          <cell r="H27">
-            <v>-41.930263519287109</v>
-          </cell>
-          <cell r="I27">
-            <v>33</v>
-          </cell>
-          <cell r="J27">
-            <v>-57.465145111083984</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>29</v>
-          </cell>
-          <cell r="B28">
-            <v>-1.8418384790420532</v>
-          </cell>
-          <cell r="C28">
-            <v>29</v>
-          </cell>
-          <cell r="D28">
-            <v>-16.326528549194336</v>
-          </cell>
-          <cell r="E28">
-            <v>31</v>
-          </cell>
-          <cell r="F28">
-            <v>-30.006322860717773</v>
-          </cell>
-          <cell r="G28">
-            <v>32</v>
-          </cell>
-          <cell r="H28">
-            <v>-42.603271484375</v>
-          </cell>
-          <cell r="I28">
-            <v>33.166667938232422</v>
-          </cell>
-          <cell r="J28">
-            <v>-60.007781982421875</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>29.200000762939453</v>
-          </cell>
-          <cell r="B29">
-            <v>-1.801224946975708</v>
-          </cell>
-          <cell r="C29">
-            <v>29.200000762939453</v>
-          </cell>
-          <cell r="D29">
-            <v>-16.568803787231445</v>
-          </cell>
-          <cell r="E29">
-            <v>31.200000762939453</v>
-          </cell>
-          <cell r="F29">
-            <v>-29.542575836181641</v>
-          </cell>
-          <cell r="G29">
-            <v>32.200000762939453</v>
-          </cell>
-          <cell r="H29">
-            <v>-43.474605560302734</v>
-          </cell>
-          <cell r="I29">
-            <v>33.333332061767578</v>
-          </cell>
-          <cell r="J29">
-            <v>-37.085994720458984</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>29.399999618530273</v>
-          </cell>
-          <cell r="B30">
-            <v>-1.8057395219802856</v>
-          </cell>
-          <cell r="C30">
-            <v>29.399999618530273</v>
-          </cell>
-          <cell r="D30">
-            <v>-16.857915878295898</v>
-          </cell>
-          <cell r="E30">
-            <v>31.399999618530273</v>
-          </cell>
-          <cell r="F30">
-            <v>-26.559957504272461</v>
-          </cell>
-          <cell r="G30">
-            <v>32.400001525878906</v>
-          </cell>
-          <cell r="H30">
-            <v>-33.502052307128906</v>
-          </cell>
-          <cell r="I30">
-            <v>33.5</v>
-          </cell>
-          <cell r="J30">
-            <v>-27.938209533691406</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>29.600000381469727</v>
-          </cell>
-          <cell r="B31">
-            <v>-1.8084714412689209</v>
-          </cell>
-          <cell r="C31">
-            <v>29.600000381469727</v>
-          </cell>
-          <cell r="D31">
-            <v>-17.024030685424805</v>
-          </cell>
-          <cell r="E31">
-            <v>31.600000381469727</v>
-          </cell>
-          <cell r="F31">
-            <v>-24.400094985961914</v>
-          </cell>
-          <cell r="G31">
-            <v>32.599998474121094</v>
-          </cell>
-          <cell r="H31">
-            <v>-29.865949630737305</v>
-          </cell>
-          <cell r="I31">
-            <v>33.666667938232422</v>
-          </cell>
-          <cell r="J31">
-            <v>-26.651756286621094</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>29.799999237060547</v>
-          </cell>
-          <cell r="B32">
-            <v>-1.8143644332885742</v>
-          </cell>
-          <cell r="C32">
-            <v>29.799999237060547</v>
-          </cell>
-          <cell r="D32">
-            <v>-17.053213119506836</v>
-          </cell>
-          <cell r="E32">
-            <v>31.799999237060547</v>
-          </cell>
-          <cell r="F32">
-            <v>-20.390869140625</v>
-          </cell>
-          <cell r="G32">
-            <v>32.799999237060547</v>
-          </cell>
-          <cell r="H32">
-            <v>-25.573381423950195</v>
-          </cell>
-          <cell r="I32">
-            <v>33.833332061767578</v>
-          </cell>
-          <cell r="J32">
-            <v>-26.673139572143555</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>30</v>
-          </cell>
-          <cell r="B33">
-            <v>-1.8107641935348511</v>
-          </cell>
-          <cell r="C33">
-            <v>30</v>
-          </cell>
-          <cell r="D33">
-            <v>-16.614734649658203</v>
-          </cell>
-          <cell r="E33">
-            <v>32</v>
-          </cell>
-          <cell r="F33">
-            <v>-16.993757247924805</v>
-          </cell>
-          <cell r="G33">
-            <v>33</v>
-          </cell>
-          <cell r="H33">
-            <v>-22.797933578491211</v>
-          </cell>
-          <cell r="I33">
-            <v>34</v>
-          </cell>
-          <cell r="J33">
-            <v>-28.031486511230469</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>30.200000762939453</v>
-          </cell>
-          <cell r="B34">
-            <v>-1.7866988182067871</v>
-          </cell>
-          <cell r="C34">
-            <v>30.200000762939453</v>
-          </cell>
-          <cell r="D34">
-            <v>-15.501371383666992</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>30.399999618530273</v>
-          </cell>
-          <cell r="B35">
-            <v>-1.757227897644043</v>
-          </cell>
-          <cell r="C35">
-            <v>30.399999618530273</v>
-          </cell>
-          <cell r="D35">
-            <v>-13.73705005645752</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>30.600000381469727</v>
-          </cell>
-          <cell r="B36">
-            <v>-1.7169473171234131</v>
-          </cell>
-          <cell r="C36">
-            <v>30.600000381469727</v>
-          </cell>
-          <cell r="D36">
-            <v>-12.320948600769043</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>30.799999237060547</v>
-          </cell>
-          <cell r="B37">
-            <v>-1.6586606502532959</v>
-          </cell>
-          <cell r="C37">
-            <v>30.799999237060547</v>
-          </cell>
-          <cell r="D37">
-            <v>-11.547895431518555</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>31</v>
-          </cell>
-          <cell r="B38">
-            <v>-1.6023780107498169</v>
-          </cell>
-          <cell r="C38">
-            <v>31</v>
-          </cell>
-          <cell r="D38">
-            <v>-10.960291862487793</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>24</v>
-          </cell>
-          <cell r="B42">
-            <v>0.46500074863433838</v>
-          </cell>
-          <cell r="C42">
-            <v>24</v>
-          </cell>
-          <cell r="D42">
-            <v>1.8317927122116089</v>
-          </cell>
-          <cell r="E42">
-            <v>26</v>
-          </cell>
-          <cell r="F42">
-            <v>7.2091703414916992</v>
-          </cell>
-          <cell r="G42">
-            <v>27</v>
-          </cell>
-          <cell r="H42">
-            <v>9.8894872665405273</v>
-          </cell>
-          <cell r="I42">
-            <v>29</v>
-          </cell>
-          <cell r="J42">
-            <v>14.963131904602051</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>24.200000762939453</v>
-          </cell>
-          <cell r="B43">
-            <v>0.81355535984039307</v>
-          </cell>
-          <cell r="C43">
-            <v>24.200000762939453</v>
-          </cell>
-          <cell r="D43">
-            <v>2.2940785884857178</v>
-          </cell>
-          <cell r="E43">
-            <v>26.200000762939453</v>
-          </cell>
-          <cell r="F43">
-            <v>7.2448315620422363</v>
-          </cell>
-          <cell r="G43">
-            <v>27.200000762939453</v>
-          </cell>
-          <cell r="H43">
-            <v>9.7578449249267578</v>
-          </cell>
-          <cell r="I43">
-            <v>29.166666030883789</v>
-          </cell>
-          <cell r="J43">
-            <v>14.705248832702637</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>24.399999618530273</v>
-          </cell>
-          <cell r="B44">
-            <v>0.97336697578430176</v>
-          </cell>
-          <cell r="C44">
-            <v>24.399999618530273</v>
-          </cell>
-          <cell r="D44">
-            <v>2.7555899620056152</v>
-          </cell>
-          <cell r="E44">
-            <v>26.399999618530273</v>
-          </cell>
-          <cell r="F44">
-            <v>7.412602424621582</v>
-          </cell>
-          <cell r="G44">
-            <v>27.399999618530273</v>
-          </cell>
-          <cell r="H44">
-            <v>9.9056224822998047</v>
-          </cell>
-          <cell r="I44">
-            <v>29.333333969116211</v>
-          </cell>
-          <cell r="J44">
-            <v>14.40986442565918</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>24.600000381469727</v>
-          </cell>
-          <cell r="B45">
-            <v>1.0787351131439209</v>
-          </cell>
-          <cell r="C45">
-            <v>24.600000381469727</v>
-          </cell>
-          <cell r="D45">
-            <v>3.3966636657714844</v>
-          </cell>
-          <cell r="E45">
-            <v>26.600000381469727</v>
-          </cell>
-          <cell r="F45">
-            <v>7.5319766998291016</v>
-          </cell>
-          <cell r="G45">
-            <v>27.600000381469727</v>
-          </cell>
-          <cell r="H45">
-            <v>10.024411201477051</v>
-          </cell>
-          <cell r="I45">
-            <v>29.5</v>
-          </cell>
-          <cell r="J45">
-            <v>14.258179664611816</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>24.799999237060547</v>
-          </cell>
-          <cell r="B46">
-            <v>0.94178706407546997</v>
-          </cell>
-          <cell r="C46">
-            <v>24.799999237060547</v>
-          </cell>
-          <cell r="D46">
-            <v>4.2234983444213867</v>
-          </cell>
-          <cell r="E46">
-            <v>26.799999237060547</v>
-          </cell>
-          <cell r="F46">
-            <v>7.5534157752990723</v>
-          </cell>
-          <cell r="G46">
-            <v>27.799999237060547</v>
-          </cell>
-          <cell r="H46">
-            <v>10.005081176757813</v>
-          </cell>
-          <cell r="I46">
-            <v>29.666666030883789</v>
-          </cell>
-          <cell r="J46">
-            <v>14.208844184875488</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>25</v>
-          </cell>
-          <cell r="B47">
-            <v>0.71014899015426636</v>
-          </cell>
-          <cell r="C47">
-            <v>25</v>
-          </cell>
-          <cell r="D47">
-            <v>4.9639973640441895</v>
-          </cell>
-          <cell r="E47">
-            <v>27</v>
-          </cell>
-          <cell r="F47">
-            <v>7.4361982345581055</v>
-          </cell>
-          <cell r="G47">
-            <v>28</v>
-          </cell>
-          <cell r="H47">
-            <v>10.341358184814453</v>
-          </cell>
-          <cell r="I47">
-            <v>29.833333969116211</v>
-          </cell>
-          <cell r="J47">
-            <v>14.414031982421875</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>25.200000762939453</v>
-          </cell>
-          <cell r="B48">
-            <v>0.46841427683830261</v>
-          </cell>
-          <cell r="C48">
-            <v>25.200000762939453</v>
-          </cell>
-          <cell r="D48">
-            <v>5.2978711128234863</v>
-          </cell>
-          <cell r="E48">
-            <v>27.200000762939453</v>
-          </cell>
-          <cell r="F48">
-            <v>7.4676952362060547</v>
-          </cell>
-          <cell r="G48">
-            <v>28.200000762939453</v>
-          </cell>
-          <cell r="H48">
-            <v>10.590681076049805</v>
-          </cell>
-          <cell r="I48">
-            <v>30</v>
-          </cell>
-          <cell r="J48">
-            <v>14.59996223449707</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>25.399999618530273</v>
-          </cell>
-          <cell r="B49">
-            <v>0.229460209608078</v>
-          </cell>
-          <cell r="C49">
-            <v>25.399999618530273</v>
-          </cell>
-          <cell r="D49">
-            <v>5.5824794769287109</v>
-          </cell>
-          <cell r="E49">
-            <v>27.399999618530273</v>
-          </cell>
-          <cell r="F49">
-            <v>7.5491795539855957</v>
-          </cell>
-          <cell r="G49">
-            <v>28.399999618530273</v>
-          </cell>
-          <cell r="H49">
-            <v>10.95658016204834</v>
-          </cell>
-          <cell r="I49">
-            <v>30.166666030883789</v>
-          </cell>
-          <cell r="J49">
-            <v>14.879184722900391</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>25.600000381469727</v>
-          </cell>
-          <cell r="B50">
-            <v>3.4245610237121582E-2</v>
-          </cell>
-          <cell r="C50">
-            <v>25.600000381469727</v>
-          </cell>
-          <cell r="D50">
-            <v>5.5448403358459473</v>
-          </cell>
-          <cell r="E50">
-            <v>27.600000381469727</v>
-          </cell>
-          <cell r="F50">
-            <v>7.5117483139038086</v>
-          </cell>
-          <cell r="G50">
-            <v>28.600000381469727</v>
-          </cell>
-          <cell r="H50">
-            <v>10.913241386413574</v>
-          </cell>
-          <cell r="I50">
-            <v>30.333333969116211</v>
-          </cell>
-          <cell r="J50">
-            <v>15.306622505187988</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>25.799999237060547</v>
-          </cell>
-          <cell r="B51">
-            <v>-0.13164454698562622</v>
-          </cell>
-          <cell r="C51">
-            <v>25.799999237060547</v>
-          </cell>
-          <cell r="D51">
-            <v>5.3498435020446777</v>
-          </cell>
-          <cell r="E51">
-            <v>27.799999237060547</v>
-          </cell>
-          <cell r="F51">
-            <v>7.4643654823303223</v>
-          </cell>
-          <cell r="G51">
-            <v>28.799999237060547</v>
-          </cell>
-          <cell r="H51">
-            <v>11.31385612487793</v>
-          </cell>
-          <cell r="I51">
-            <v>30.5</v>
-          </cell>
-          <cell r="J51">
-            <v>15.47481632232666</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>26</v>
-          </cell>
-          <cell r="B52">
-            <v>-0.30739346146583557</v>
-          </cell>
-          <cell r="C52">
-            <v>26</v>
-          </cell>
-          <cell r="D52">
-            <v>5.1655669212341309</v>
-          </cell>
-          <cell r="E52">
-            <v>28</v>
-          </cell>
-          <cell r="F52">
-            <v>7.3450584411621094</v>
-          </cell>
-          <cell r="G52">
-            <v>29</v>
-          </cell>
-          <cell r="H52">
-            <v>11.674688339233398</v>
-          </cell>
-          <cell r="I52">
-            <v>30.666666030883789</v>
-          </cell>
-          <cell r="J52">
-            <v>15.502839088439941</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>26.200000762939453</v>
-          </cell>
-          <cell r="B53">
-            <v>-0.43980365991592407</v>
-          </cell>
-          <cell r="C53">
-            <v>26.200000762939453</v>
-          </cell>
-          <cell r="D53">
-            <v>4.8718457221984863</v>
-          </cell>
-          <cell r="E53">
-            <v>28.200000762939453</v>
-          </cell>
-          <cell r="F53">
-            <v>7.2787423133850098</v>
-          </cell>
-          <cell r="G53">
-            <v>29.200000762939453</v>
-          </cell>
-          <cell r="H53">
-            <v>11.319416046142578</v>
-          </cell>
-          <cell r="I53">
-            <v>30.833333969116211</v>
-          </cell>
-          <cell r="J53">
-            <v>15.444490432739258</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>26.399999618530273</v>
-          </cell>
-          <cell r="B54">
-            <v>-0.53793632984161377</v>
-          </cell>
-          <cell r="C54">
-            <v>26.399999618530273</v>
-          </cell>
-          <cell r="D54">
-            <v>4.6701545715332031</v>
-          </cell>
-          <cell r="E54">
-            <v>28.399999618530273</v>
-          </cell>
-          <cell r="F54">
-            <v>7.2180542945861816</v>
-          </cell>
-          <cell r="G54">
-            <v>29.399999618530273</v>
-          </cell>
-          <cell r="H54">
-            <v>11.004990577697754</v>
-          </cell>
-          <cell r="I54">
-            <v>31</v>
-          </cell>
-          <cell r="J54">
-            <v>15.407357215881348</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>26.600000381469727</v>
-          </cell>
-          <cell r="B55">
-            <v>-0.64381444454193115</v>
-          </cell>
-          <cell r="C55">
-            <v>26.600000381469727</v>
-          </cell>
-          <cell r="D55">
-            <v>4.4206113815307617</v>
-          </cell>
-          <cell r="E55">
-            <v>28.600000381469727</v>
-          </cell>
-          <cell r="F55">
-            <v>7.0913829803466797</v>
-          </cell>
-          <cell r="G55">
-            <v>29.600000381469727</v>
-          </cell>
-          <cell r="H55">
-            <v>10.386530876159668</v>
-          </cell>
-          <cell r="I55">
-            <v>31.166666030883789</v>
-          </cell>
-          <cell r="J55">
-            <v>15.360548973083496</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>26.799999237060547</v>
-          </cell>
-          <cell r="B56">
-            <v>-0.74001091718673706</v>
-          </cell>
-          <cell r="C56">
-            <v>26.799999237060547</v>
-          </cell>
-          <cell r="D56">
-            <v>4.0885767936706543</v>
-          </cell>
-          <cell r="E56">
-            <v>28.799999237060547</v>
-          </cell>
-          <cell r="F56">
-            <v>6.9398550987243652</v>
-          </cell>
-          <cell r="G56">
-            <v>29.799999237060547</v>
-          </cell>
-          <cell r="H56">
-            <v>9.5895051956176758</v>
-          </cell>
-          <cell r="I56">
-            <v>31.333333969116211</v>
-          </cell>
-          <cell r="J56">
-            <v>14.007079124450684</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>27</v>
-          </cell>
-          <cell r="B57">
-            <v>-0.83623051643371582</v>
-          </cell>
-          <cell r="C57">
-            <v>27</v>
-          </cell>
-          <cell r="D57">
-            <v>3.7223250865936279</v>
-          </cell>
-          <cell r="E57">
-            <v>29</v>
-          </cell>
-          <cell r="F57">
-            <v>6.7100448608398438</v>
-          </cell>
-          <cell r="G57">
-            <v>30</v>
-          </cell>
-          <cell r="H57">
-            <v>9.1523056030273438</v>
-          </cell>
-          <cell r="I57">
-            <v>31.5</v>
-          </cell>
-          <cell r="J57">
-            <v>13.220868110656738</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>27.200000762939453</v>
-          </cell>
-          <cell r="B58">
-            <v>-0.94761037826538086</v>
-          </cell>
-          <cell r="C58">
-            <v>27.200000762939453</v>
-          </cell>
-          <cell r="D58">
-            <v>3.0612850189208984</v>
-          </cell>
-          <cell r="E58">
-            <v>29.200000762939453</v>
-          </cell>
-          <cell r="F58">
-            <v>6.2871532440185547</v>
-          </cell>
-          <cell r="G58">
-            <v>30.200000762939453</v>
-          </cell>
-          <cell r="H58">
-            <v>8.5345478057861328</v>
-          </cell>
-          <cell r="I58">
-            <v>31.666666030883789</v>
-          </cell>
-          <cell r="J58">
-            <v>11.858275413513184</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>27.399999618530273</v>
-          </cell>
-          <cell r="B59">
-            <v>-1.0140016078948975</v>
-          </cell>
-          <cell r="C59">
-            <v>27.399999618530273</v>
-          </cell>
-          <cell r="D59">
-            <v>2.5093460083007813</v>
-          </cell>
-          <cell r="E59">
-            <v>29.399999618530273</v>
-          </cell>
-          <cell r="F59">
-            <v>5.4466133117675781</v>
-          </cell>
-          <cell r="G59">
-            <v>30.399999618530273</v>
-          </cell>
-          <cell r="H59">
-            <v>8.1248388290405273</v>
-          </cell>
-          <cell r="I59">
-            <v>31.833333969116211</v>
-          </cell>
-          <cell r="J59">
-            <v>10.392840385437012</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>27.600000381469727</v>
-          </cell>
-          <cell r="B60">
-            <v>-1.0512732267379761</v>
-          </cell>
-          <cell r="C60">
-            <v>27.600000381469727</v>
-          </cell>
-          <cell r="D60">
-            <v>1.9708997011184692</v>
-          </cell>
-          <cell r="E60">
-            <v>29.600000381469727</v>
-          </cell>
-          <cell r="F60">
-            <v>4.5842175483703613</v>
-          </cell>
-          <cell r="G60">
-            <v>30.600000381469727</v>
-          </cell>
-          <cell r="H60">
-            <v>7.7278027534484863</v>
-          </cell>
-          <cell r="I60">
-            <v>32</v>
-          </cell>
-          <cell r="J60">
-            <v>8.8656549453735352</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>27.799999237060547</v>
-          </cell>
-          <cell r="B61">
-            <v>-1.0771911144256592</v>
-          </cell>
-          <cell r="C61">
-            <v>27.799999237060547</v>
-          </cell>
-          <cell r="D61">
-            <v>1.4095746278762817</v>
-          </cell>
-          <cell r="E61">
-            <v>29.799999237060547</v>
-          </cell>
-          <cell r="F61">
-            <v>3.7740323543548584</v>
-          </cell>
-          <cell r="G61">
-            <v>30.799999237060547</v>
-          </cell>
-          <cell r="H61">
-            <v>7.146026611328125</v>
-          </cell>
-          <cell r="I61">
-            <v>32.166667938232422</v>
-          </cell>
-          <cell r="J61">
-            <v>7.2391767501831055</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>28</v>
-          </cell>
-          <cell r="B62">
-            <v>-1.1028810739517212</v>
-          </cell>
-          <cell r="C62">
-            <v>28</v>
-          </cell>
-          <cell r="D62">
-            <v>0.91519743204116821</v>
-          </cell>
-          <cell r="E62">
-            <v>30</v>
-          </cell>
-          <cell r="F62">
-            <v>3.0451080799102783</v>
-          </cell>
-          <cell r="G62">
-            <v>31</v>
-          </cell>
-          <cell r="H62">
-            <v>6.9294047355651855</v>
-          </cell>
-          <cell r="I62">
-            <v>32.333332061767578</v>
-          </cell>
-          <cell r="J62">
-            <v>4.9266748428344727</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>28.200000762939453</v>
-          </cell>
-          <cell r="B63">
-            <v>-1.1470880508422852</v>
-          </cell>
-          <cell r="C63">
-            <v>28.200000762939453</v>
-          </cell>
-          <cell r="D63">
-            <v>0.38190582394599915</v>
-          </cell>
-          <cell r="E63">
-            <v>30.200000762939453</v>
-          </cell>
-          <cell r="F63">
-            <v>2.0704600811004639</v>
-          </cell>
-          <cell r="G63">
-            <v>31.200000762939453</v>
-          </cell>
-          <cell r="H63">
-            <v>5.7869172096252441</v>
-          </cell>
-          <cell r="I63">
-            <v>32.5</v>
-          </cell>
-          <cell r="J63">
-            <v>2.3868293762207031</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>28.399999618530273</v>
-          </cell>
-          <cell r="B64">
-            <v>-1.1832976341247559</v>
-          </cell>
-          <cell r="C64">
-            <v>28.399999618530273</v>
-          </cell>
-          <cell r="D64">
-            <v>-9.2401161789894104E-2</v>
-          </cell>
-          <cell r="E64">
-            <v>30.399999618530273</v>
-          </cell>
-          <cell r="F64">
-            <v>0.82232415676116943</v>
-          </cell>
-          <cell r="G64">
-            <v>31.399999618530273</v>
-          </cell>
-          <cell r="H64">
-            <v>3.9890701770782471</v>
-          </cell>
-          <cell r="I64">
-            <v>32.666667938232422</v>
-          </cell>
-          <cell r="J64">
-            <v>-0.48789885640144348</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>28.600000381469727</v>
-          </cell>
-          <cell r="B65">
-            <v>-1.2485735416412354</v>
-          </cell>
-          <cell r="C65">
-            <v>28.600000381469727</v>
-          </cell>
-          <cell r="D65">
-            <v>-0.52535402774810791</v>
-          </cell>
-          <cell r="E65">
-            <v>30.600000381469727</v>
-          </cell>
-          <cell r="F65">
-            <v>-0.66770446300506592</v>
-          </cell>
-          <cell r="G65">
-            <v>31.600000381469727</v>
-          </cell>
-          <cell r="H65">
-            <v>1.7317354679107666</v>
-          </cell>
-          <cell r="I65">
-            <v>32.833332061767578</v>
-          </cell>
-          <cell r="J65">
-            <v>-4.4000701904296875</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>28.799999237060547</v>
-          </cell>
-          <cell r="B66">
-            <v>-1.2790981531143188</v>
-          </cell>
-          <cell r="C66">
-            <v>28.799999237060547</v>
-          </cell>
-          <cell r="D66">
-            <v>-1.0449081659317017</v>
-          </cell>
-          <cell r="E66">
-            <v>30.799999237060547</v>
-          </cell>
-          <cell r="F66">
-            <v>-2.5874719619750977</v>
-          </cell>
-          <cell r="G66">
-            <v>31.799999237060547</v>
-          </cell>
-          <cell r="H66">
-            <v>-1.2816739082336426</v>
-          </cell>
-          <cell r="I66">
-            <v>33</v>
-          </cell>
-          <cell r="J66">
-            <v>-7.3509073257446289</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>29</v>
-          </cell>
-          <cell r="B67">
-            <v>-1.269817590713501</v>
-          </cell>
-          <cell r="C67">
-            <v>29</v>
-          </cell>
-          <cell r="D67">
-            <v>-1.7350887060165405</v>
-          </cell>
-          <cell r="E67">
-            <v>31</v>
-          </cell>
-          <cell r="F67">
-            <v>-4.8142518997192383</v>
-          </cell>
-          <cell r="G67">
-            <v>32</v>
-          </cell>
-          <cell r="H67">
-            <v>-4.3862204551696777</v>
-          </cell>
-          <cell r="I67">
-            <v>33.166667938232422</v>
-          </cell>
-          <cell r="J67">
-            <v>-7.6319456100463867</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>29.200000762939453</v>
-          </cell>
-          <cell r="B68">
-            <v>-1.2392308712005615</v>
-          </cell>
-          <cell r="C68">
-            <v>29.200000762939453</v>
-          </cell>
-          <cell r="D68">
-            <v>-2.573319673538208</v>
-          </cell>
-          <cell r="E68">
-            <v>31.200000762939453</v>
-          </cell>
-          <cell r="F68">
-            <v>-8.2064189910888672</v>
-          </cell>
-          <cell r="G68">
-            <v>32.200000762939453</v>
-          </cell>
-          <cell r="H68">
-            <v>-6.5412192344665527</v>
-          </cell>
-          <cell r="I68">
-            <v>33.333332061767578</v>
-          </cell>
-          <cell r="J68">
-            <v>-27.978382110595703</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>29.399999618530273</v>
-          </cell>
-          <cell r="B69">
-            <v>-1.2320655584335327</v>
-          </cell>
-          <cell r="C69">
-            <v>29.399999618530273</v>
-          </cell>
-          <cell r="D69">
-            <v>-3.3187341690063477</v>
-          </cell>
-          <cell r="E69">
-            <v>31.399999618530273</v>
-          </cell>
-          <cell r="F69">
-            <v>-12.936838150024414</v>
-          </cell>
-          <cell r="G69">
-            <v>32.400001525878906</v>
-          </cell>
-          <cell r="H69">
-            <v>-19.373434066772461</v>
-          </cell>
-          <cell r="I69">
-            <v>33.5</v>
-          </cell>
-          <cell r="J69">
-            <v>-28.484363555908203</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>29.600000381469727</v>
-          </cell>
-          <cell r="B70">
-            <v>-1.2341903448104858</v>
-          </cell>
-          <cell r="C70">
-            <v>29.600000381469727</v>
-          </cell>
-          <cell r="D70">
-            <v>-4.173738956451416</v>
-          </cell>
-          <cell r="E70">
-            <v>31.600000381469727</v>
-          </cell>
-          <cell r="F70">
-            <v>-15.198762893676758</v>
-          </cell>
-          <cell r="G70">
-            <v>32.599998474121094</v>
-          </cell>
-          <cell r="H70">
-            <v>-21.387842178344727</v>
-          </cell>
-          <cell r="I70">
-            <v>33.666667938232422</v>
-          </cell>
-          <cell r="J70">
-            <v>-27.666786193847656</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>29.799999237060547</v>
-          </cell>
-          <cell r="B71">
-            <v>-1.2788169384002686</v>
-          </cell>
-          <cell r="C71">
-            <v>29.799999237060547</v>
-          </cell>
-          <cell r="D71">
-            <v>-5.3679533004760742</v>
-          </cell>
-          <cell r="E71">
-            <v>31.799999237060547</v>
-          </cell>
-          <cell r="F71">
-            <v>-17.561029434204102</v>
-          </cell>
-          <cell r="G71">
-            <v>32.799999237060547</v>
-          </cell>
-          <cell r="H71">
-            <v>-22.379287719726563</v>
-          </cell>
-          <cell r="I71">
-            <v>33.833332061767578</v>
-          </cell>
-          <cell r="J71">
-            <v>-26.959087371826172</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>30</v>
-          </cell>
-          <cell r="B72">
-            <v>-1.3278870582580566</v>
-          </cell>
-          <cell r="C72">
-            <v>30</v>
-          </cell>
-          <cell r="D72">
-            <v>-6.9554872512817383</v>
-          </cell>
-          <cell r="E72">
-            <v>32</v>
-          </cell>
-          <cell r="F72">
-            <v>-18.562448501586914</v>
-          </cell>
-          <cell r="G72">
-            <v>33</v>
-          </cell>
-          <cell r="H72">
-            <v>-22.619340896606445</v>
-          </cell>
-          <cell r="I72">
-            <v>34</v>
-          </cell>
-          <cell r="J72">
-            <v>-27.329435348510742</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>30.200000762939453</v>
-          </cell>
-          <cell r="B73">
-            <v>-1.3947110176086426</v>
-          </cell>
-          <cell r="C73">
-            <v>30.200000762939453</v>
-          </cell>
-          <cell r="D73">
-            <v>-8.6936807632446289</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>30.399999618530273</v>
-          </cell>
-          <cell r="B74">
-            <v>-1.4585775136947632</v>
-          </cell>
-          <cell r="C74">
-            <v>30.399999618530273</v>
-          </cell>
-          <cell r="D74">
-            <v>-10.181264877319336</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>30.600000381469727</v>
-          </cell>
-          <cell r="B75">
-            <v>-1.5006942749023438</v>
-          </cell>
-          <cell r="C75">
-            <v>30.600000381469727</v>
-          </cell>
-          <cell r="D75">
-            <v>-10.907645225524902</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>30.799999237060547</v>
-          </cell>
-          <cell r="B76">
-            <v>-1.5549843311309814</v>
-          </cell>
-          <cell r="C76">
-            <v>30.799999237060547</v>
-          </cell>
-          <cell r="D76">
-            <v>-11.239775657653809</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>31</v>
-          </cell>
-          <cell r="B77">
-            <v>-1.6156613826751709</v>
-          </cell>
-          <cell r="C77">
-            <v>31</v>
-          </cell>
-          <cell r="D77">
-            <v>-11.53823184967041</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16752,44 +14430,44 @@
       <a:sysClr val="window" lastClr="FFFFFF"/>
     </a:lt1>
     <a:dk2>
-      <a:srgbClr val="1F497D"/>
+      <a:srgbClr val="44546A"/>
     </a:dk2>
     <a:lt2>
-      <a:srgbClr val="EEECE1"/>
+      <a:srgbClr val="E7E6E6"/>
     </a:lt2>
     <a:accent1>
-      <a:srgbClr val="4F81BD"/>
+      <a:srgbClr val="4472C4"/>
     </a:accent1>
     <a:accent2>
-      <a:srgbClr val="C0504D"/>
+      <a:srgbClr val="ED7D31"/>
     </a:accent2>
     <a:accent3>
-      <a:srgbClr val="9BBB59"/>
+      <a:srgbClr val="A5A5A5"/>
     </a:accent3>
     <a:accent4>
-      <a:srgbClr val="8064A2"/>
+      <a:srgbClr val="FFC000"/>
     </a:accent4>
     <a:accent5>
-      <a:srgbClr val="4BACC6"/>
+      <a:srgbClr val="5B9BD5"/>
     </a:accent5>
     <a:accent6>
-      <a:srgbClr val="F79646"/>
+      <a:srgbClr val="70AD47"/>
     </a:accent6>
     <a:hlink>
-      <a:srgbClr val="0000FF"/>
+      <a:srgbClr val="0563C1"/>
     </a:hlink>
     <a:folHlink>
-      <a:srgbClr val="800080"/>
+      <a:srgbClr val="954F72"/>
     </a:folHlink>
   </a:clrScheme>
   <a:fontScheme name="Стандартная">
     <a:majorFont>
-      <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
       <a:ea typeface=""/>
       <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
       <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hans" typeface="等线 Light"/>
       <a:font script="Hant" typeface="新細明體"/>
       <a:font script="Arab" typeface="Times New Roman"/>
       <a:font script="Hebr" typeface="Times New Roman"/>
@@ -16839,9 +14517,9 @@
       <a:latin typeface="Calibri" panose="020F0502020204030204"/>
       <a:ea typeface=""/>
       <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
       <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hans" typeface="等线"/>
       <a:font script="Hant" typeface="新細明體"/>
       <a:font script="Arab" typeface="Arial"/>
       <a:font script="Hebr" typeface="Arial"/>
@@ -16897,160 +14575,131 @@
         <a:gsLst>
           <a:gs pos="0">
             <a:schemeClr val="phClr">
-              <a:tint val="50000"/>
-              <a:satMod val="300000"/>
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
             </a:schemeClr>
           </a:gs>
-          <a:gs pos="35000">
+          <a:gs pos="50000">
             <a:schemeClr val="phClr">
-              <a:tint val="37000"/>
-              <a:satMod val="300000"/>
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
             </a:schemeClr>
           </a:gs>
           <a:gs pos="100000">
             <a:schemeClr val="phClr">
-              <a:tint val="15000"/>
-              <a:satMod val="350000"/>
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
             </a:schemeClr>
           </a:gs>
         </a:gsLst>
-        <a:lin ang="16200000" scaled="1"/>
+        <a:lin ang="5400000" scaled="0"/>
       </a:gradFill>
       <a:gradFill rotWithShape="1">
         <a:gsLst>
           <a:gs pos="0">
             <a:schemeClr val="phClr">
-              <a:shade val="51000"/>
-              <a:satMod val="130000"/>
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
             </a:schemeClr>
           </a:gs>
-          <a:gs pos="80000">
+          <a:gs pos="50000">
             <a:schemeClr val="phClr">
-              <a:shade val="93000"/>
-              <a:satMod val="130000"/>
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
             </a:schemeClr>
           </a:gs>
           <a:gs pos="100000">
             <a:schemeClr val="phClr">
-              <a:shade val="94000"/>
-              <a:satMod val="135000"/>
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
             </a:schemeClr>
           </a:gs>
         </a:gsLst>
-        <a:lin ang="16200000" scaled="0"/>
+        <a:lin ang="5400000" scaled="0"/>
       </a:gradFill>
     </a:fillStyleLst>
     <a:lnStyleLst>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-            <a:satMod val="105000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
       </a:ln>
-      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
       </a:ln>
     </a:lnStyleLst>
     <a:effectStyleLst>
       <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="63000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="orthographicFront">
-            <a:rot lat="0" lon="0" rev="0"/>
-          </a:camera>
-          <a:lightRig rig="threePt" dir="t">
-            <a:rot lat="0" lon="0" rev="1200000"/>
-          </a:lightRig>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT w="63500" h="25400"/>
-        </a:sp3d>
       </a:effectStyle>
     </a:effectStyleLst>
     <a:bgFillStyleLst>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:gradFill rotWithShape="1">
         <a:gsLst>
           <a:gs pos="0">
             <a:schemeClr val="phClr">
-              <a:tint val="40000"/>
-              <a:satMod val="350000"/>
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
             </a:schemeClr>
           </a:gs>
-          <a:gs pos="40000">
+          <a:gs pos="50000">
             <a:schemeClr val="phClr">
-              <a:tint val="45000"/>
-              <a:shade val="99000"/>
-              <a:satMod val="350000"/>
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
             </a:schemeClr>
           </a:gs>
           <a:gs pos="100000">
             <a:schemeClr val="phClr">
-              <a:shade val="20000"/>
-              <a:satMod val="255000"/>
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
             </a:schemeClr>
           </a:gs>
         </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="80000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="30000"/>
-              <a:satMod val="200000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
+        <a:lin ang="5400000" scaled="0"/>
       </a:gradFill>
     </a:bgFillStyleLst>
   </a:fmtScheme>
@@ -17062,7 +14711,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="L53" sqref="K53:L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17097,8 +14746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9E1E0D-5F10-4C4C-8945-2EBD06D66BC3}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17773,341 +15422,341 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3823255-2A8F-4FC4-847E-C4C254012FBF}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
@@ -18131,7 +15780,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/templates/Base.xlsx
+++ b/templates/Base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\Projects\ResponseAnalyzer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9253AB-FB8D-4FAD-B896-D8EFD6D8C0E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0FEE00-FEAD-419A-85EF-1D57986F51B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{A8E955EB-F13F-4C65-9C3C-6EA905D67102}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="5" xr2:uid="{A8E955EB-F13F-4C65-9C3C-6EA905D67102}"/>
   </bookViews>
   <sheets>
     <sheet name="АЧХ" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Вращение" sheetId="4" r:id="rId3"/>
     <sheet name="f(A)" sheetId="5" r:id="rId4"/>
     <sheet name="Markers" sheetId="3" r:id="rId5"/>
+    <sheet name="Lines" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="19">
   <si>
     <t>Мнимая</t>
   </si>
@@ -74,6 +75,18 @@
   </si>
   <si>
     <t>●</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x━</t>
+  </si>
+  <si>
+    <t>x--</t>
+  </si>
+  <si>
+    <t>━</t>
   </si>
 </sst>
 </file>
@@ -10833,8 +10846,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6743700" y="723900"/>
-          <a:ext cx="1536701" cy="1360489"/>
+          <a:off x="6911340" y="723900"/>
+          <a:ext cx="1567181" cy="1360489"/>
           <a:chOff x="7370763" y="1735136"/>
           <a:chExt cx="1536701" cy="1331914"/>
         </a:xfrm>
@@ -14714,9 +14727,9 @@
       <selection activeCell="L53" sqref="K53:L53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14732,9 +14745,9 @@
       <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14750,9 +14763,9 @@
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -14764,7 +14777,7 @@
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -14776,7 +14789,7 @@
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -14788,7 +14801,7 @@
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -14800,7 +14813,7 @@
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -14812,7 +14825,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -14824,7 +14837,7 @@
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -14836,7 +14849,7 @@
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -14848,7 +14861,7 @@
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -14860,7 +14873,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -14872,7 +14885,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -14884,7 +14897,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -14896,7 +14909,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -14908,7 +14921,7 @@
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -14920,7 +14933,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -14932,7 +14945,7 @@
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -14944,7 +14957,7 @@
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -14956,7 +14969,7 @@
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -14968,7 +14981,7 @@
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -14980,7 +14993,7 @@
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -14992,7 +15005,7 @@
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -15004,7 +15017,7 @@
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -15016,7 +15029,7 @@
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -15028,7 +15041,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -15040,7 +15053,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -15052,7 +15065,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -15064,7 +15077,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -15076,7 +15089,7 @@
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -15088,7 +15101,7 @@
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -15100,7 +15113,7 @@
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -15112,7 +15125,7 @@
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -15124,7 +15137,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -15136,7 +15149,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -15148,7 +15161,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -15160,7 +15173,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -15172,7 +15185,7 @@
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -15184,7 +15197,7 @@
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -15196,7 +15209,7 @@
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -15208,7 +15221,7 @@
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -15220,7 +15233,7 @@
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -15232,7 +15245,7 @@
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -15244,7 +15257,7 @@
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -15256,7 +15269,7 @@
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -15268,7 +15281,7 @@
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -15280,7 +15293,7 @@
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -15292,7 +15305,7 @@
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -15304,7 +15317,7 @@
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -15316,7 +15329,7 @@
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -15328,7 +15341,7 @@
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -15340,7 +15353,7 @@
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -15352,7 +15365,7 @@
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -15364,7 +15377,7 @@
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -15376,7 +15389,7 @@
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -15388,7 +15401,7 @@
       <c r="I53" s="14"/>
       <c r="J53" s="14"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -15400,7 +15413,7 @@
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -15422,13 +15435,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3823255-2A8F-4FC4-847E-C4C254012FBF}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -15439,7 +15452,7 @@
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -15450,7 +15463,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -15461,7 +15474,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -15472,7 +15485,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -15483,7 +15496,7 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -15494,7 +15507,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -15505,7 +15518,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -15516,7 +15529,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -15527,7 +15540,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -15538,7 +15551,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -15549,7 +15562,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -15560,7 +15573,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -15571,7 +15584,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -15582,7 +15595,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -15593,7 +15606,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -15604,7 +15617,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -15615,7 +15628,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -15626,7 +15639,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -15637,7 +15650,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -15648,7 +15661,7 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -15659,7 +15672,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -15670,7 +15683,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -15681,7 +15694,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -15692,7 +15705,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -15703,7 +15716,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -15714,7 +15727,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -15725,7 +15738,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -15736,7 +15749,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -15747,7 +15760,7 @@
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -15758,7 +15771,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -15780,19 +15793,19 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F18" sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="15.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="3" customWidth="1"/>
-    <col min="7" max="10" width="9.140625" style="3"/>
-    <col min="11" max="11" width="9.140625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="5" width="15.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="3" customWidth="1"/>
+    <col min="7" max="10" width="9.109375" style="3"/>
+    <col min="11" max="11" width="9.109375" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -15812,7 +15825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -15833,7 +15846,7 @@
       </c>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -15854,7 +15867,7 @@
       </c>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -15875,7 +15888,7 @@
       </c>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -15896,7 +15909,7 @@
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -15917,7 +15930,7 @@
       </c>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -15940,7 +15953,7 @@
       <c r="K7" s="10"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="19.8" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -15961,7 +15974,7 @@
       </c>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:15" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -15982,7 +15995,7 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="19.8" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
@@ -16001,7 +16014,7 @@
       </c>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="19.8" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -16011,7 +16024,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="19.8" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -16021,7 +16034,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="19.8" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -16031,7 +16044,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -16041,7 +16054,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -16051,7 +16064,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="19.8" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -16061,7 +16074,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -16075,4 +16088,208 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222B3248-D0DD-497C-B416-49A4AA0D08AD}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/templates/Base.xlsx
+++ b/templates/Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\Projects\ResponseAnalyzer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0FEE00-FEAD-419A-85EF-1D57986F51B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0F437B-3E1E-4F19-AB05-9CCDF8DEB7D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="5" xr2:uid="{A8E955EB-F13F-4C65-9C3C-6EA905D67102}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="19">
   <si>
     <t>Мнимая</t>
   </si>
@@ -77,16 +77,16 @@
     <t>●</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>x━</t>
   </si>
   <si>
-    <t>x--</t>
+    <t>━</t>
   </si>
   <si>
-    <t>━</t>
+    <t>Действительная-ВР</t>
+  </si>
+  <si>
+    <t>Мнимая-ВР</t>
   </si>
 </sst>
 </file>
@@ -211,7 +211,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
@@ -249,6 +249,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -798,8 +801,6 @@
         <c:axId val="169085760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="24"/>
-          <c:min val="21"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -837,15 +838,11 @@
         <c:crossAx val="169086336"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.5"/>
-        <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="169086336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="-10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -883,8 +880,6 @@
         <c:crossAx val="169085760"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5"/>
-        <c:minorUnit val="5"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1536,8 +1531,6 @@
         <c:axId val="169089792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="24"/>
-          <c:min val="21"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1575,15 +1568,11 @@
         <c:crossAx val="181626560"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.5"/>
-        <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="181626560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="-10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1621,8 +1610,6 @@
         <c:crossAx val="169089792"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5"/>
-        <c:minorUnit val="5"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -2120,8 +2107,6 @@
         <c:axId val="362330304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6"/>
-          <c:min val="-6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -2168,8 +2153,6 @@
         <c:crossAx val="362329728"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="6"/>
-        <c:minorUnit val="3"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -3245,8 +3228,6 @@
         <c:axId val="362333888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="12"/>
-          <c:min val="-18"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3293,8 +3274,6 @@
         <c:crossAx val="362333312"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="6"/>
-        <c:minorUnit val="6"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -3725,8 +3704,6 @@
         <c:axId val="362343808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6"/>
-          <c:min val="-6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3773,8 +3750,6 @@
         <c:crossAx val="362343232"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="6"/>
-        <c:minorUnit val="3"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -4072,8 +4047,6 @@
         <c:axId val="362346688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6"/>
-          <c:min val="-6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4120,8 +4093,6 @@
         <c:crossAx val="362347264"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="6"/>
-        <c:minorUnit val="3"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="362347264"/>
@@ -5701,8 +5672,6 @@
         <c:axId val="262404864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="35"/>
-          <c:min val="22"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5740,7 +5709,6 @@
         <c:crossAx val="262405440"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:minorUnit val="2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="262405440"/>
@@ -5783,7 +5751,6 @@
         <c:crossAx val="262404864"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:minorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -7387,8 +7354,6 @@
         <c:axId val="175810240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="35"/>
-          <c:min val="22"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -7426,7 +7391,6 @@
         <c:crossAx val="175810816"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:minorUnit val="2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="175810816"/>
@@ -7469,8 +7433,6 @@
         <c:crossAx val="175810240"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
-        <c:minorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -7799,13 +7761,11 @@
         <c:crossAx val="175814272"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:minorUnit val="10"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="175814272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="24"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7843,7 +7803,6 @@
         <c:crossAx val="175813696"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -14724,7 +14683,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L53" sqref="K53:L53"/>
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14741,8 +14700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A104BF4C-683E-43E8-A927-D03CE3B9A284}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14759,8 +14718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9E1E0D-5F10-4C4C-8945-2EBD06D66BC3}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15436,7 +15395,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16092,23 +16051,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222B3248-D0DD-497C-B416-49A4AA0D08AD}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -16127,128 +16089,128 @@
       <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5"/>
+    <row r="3" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="15"/>
     </row>
-    <row r="4" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+    <row r="4" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
-    <row r="5" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+    <row r="5" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+    <row r="6" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+    <row r="7" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
+    <row r="9" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -16256,7 +16218,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -16264,29 +16226,21 @@
       <c r="E15" s="7"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" ht="19.8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
